--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -26658,7 +26658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26749,35 +26749,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -26836,27 +26841,28 @@
       <c r="P2" t="n">
         <v>283.194814537087</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.92170367508552 -46.296106427028526, 169.9261346937056 -46.303361974111745)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.9217036750855</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.29610642702853</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.9261346937056</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.30336197411174</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.9239191843956</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.29973420057014</v>
       </c>
     </row>
@@ -26913,27 +26919,28 @@
       <c r="P3" t="n">
         <v>273.8224811956669</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.92088589995382 -46.29636324902908, 169.92531685560164 -46.303618804911984)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.9208858999538</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.29636324902908</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.9253168556016</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.30361880491198</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.9231013777777</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.29999102697053</v>
       </c>
     </row>
@@ -26990,27 +26997,28 @@
       <c r="P4" t="n">
         <v>276.264389586593</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.9200681248226 -46.29662006982531, 169.9244990174966 -46.3038756345071)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.9200681248226</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.29662006982531</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.9244990174966</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.3038756345071</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.9222835711596</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.30024785216621</v>
       </c>
     </row>
@@ -27067,27 +27075,28 @@
       <c r="P5" t="n">
         <v>276.6023265354348</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.9192503496919 -46.29687688941723, 169.92368117939048 -46.30413246289698)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.9192503496919</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.29687688941723</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.9236811793905</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.30413246289698</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.9214657645412</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.3005046761571</v>
       </c>
     </row>
@@ -27144,27 +27153,28 @@
       <c r="P6" t="n">
         <v>275.1258271390063</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.91843257456188 -46.2971337078048, 169.92286334128303 -46.304389290081765)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.9184325745619</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.2971337078048</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.922863341283</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.30438929008177</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.9206479579225</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.30076149894328</v>
       </c>
     </row>
@@ -27221,27 +27231,28 @@
       <c r="P7" t="n">
         <v>285.4341233135336</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.91753805638794 -46.297413813214476, 169.92216792588485 -46.3046095433723)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.9175380563879</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.29741381321448</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.9221679258848</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.3046095433723</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.9198529911364</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.30101167829339</v>
       </c>
     </row>
@@ -27298,27 +27309,28 @@
       <c r="P8" t="n">
         <v>281.8898349058113</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.91659892439142 -46.297736350564264, 169.92158330741339 -46.30481762785648)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.9165989243914</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-46.29773635056426</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.9215833074134</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-46.30481762785648</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.9190911159024</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-46.30127698921037</v>
       </c>
     </row>
@@ -27375,27 +27387,28 @@
       <c r="P9" t="n">
         <v>276.0996030293786</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.91574862712667 -46.29805219214185, 169.92088867724937 -46.30507991195141)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.9157486271267</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-46.29805219214185</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.9208886772494</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-46.30507991195141</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.918318652188</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-46.30156605204663</v>
       </c>
     </row>
@@ -27452,27 +27465,28 @@
       <c r="P10" t="n">
         <v>268.5710202856824</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.91495831923496 -46.29834721386035, 169.9200983154682 -46.305374944175995)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.914958319235</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-46.29834721386035</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.9200983154682</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-46.30537494417599</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.9175283173516</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-46.30186107901817</v>
       </c>
     </row>
@@ -27529,27 +27543,28 @@
       <c r="P11" t="n">
         <v>265.7597470450717</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.91424389501577 -46.29861603379776, 169.91918685900495 -46.305711188169035)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.9142438950158</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-46.29861603379776</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.919186859005</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-46.30571118816903</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.9167153770103</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-46.3021636109834</v>
       </c>
     </row>
@@ -27606,27 +27621,28 @@
       <c r="P12" t="n">
         <v>262.8459263155261</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (169.91356933294486 -46.29884721873662, 169.91817164643172 -46.3060513685823)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>169.9135693329449</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-46.29884721873662</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>169.9181716464317</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-46.3060513685823</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>169.9158704896883</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-46.30244929365946</v>
       </c>
     </row>
@@ -27683,27 +27699,28 @@
       <c r="P13" t="n">
         <v>268.0677723470511</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (169.91280749427798 -46.29908895762648, 169.91726729831456 -46.306335935839044)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>169.912807494278</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-46.29908895762648</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>169.9172672983146</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-46.30633593583904</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>169.9150373962963</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-46.30271244673276</v>
       </c>
     </row>
@@ -27760,27 +27777,28 @@
       <c r="P14" t="n">
         <v>270.8703555093124</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (169.9118724532336 -46.29938403897915, 169.9166392605624 -46.306536713645436)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>169.9118724532336</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-46.29938403897915</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>169.9166392605624</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-46.30653671364544</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>169.914255856898</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-46.30296037631229</v>
       </c>
     </row>
@@ -27837,27 +27855,28 @@
       <c r="P15" t="n">
         <v>293.4497687310073</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (169.91065890440973 -46.29983083250649, 169.91652672649286 -46.306579756598396)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>169.9106589044097</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-46.29983083250649</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>169.9165267264929</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-46.3065797565984</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>169.9135928154513</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-46.30320529455244</v>
       </c>
     </row>
@@ -27914,27 +27933,28 @@
       <c r="P16" t="n">
         <v>288.0413159269118</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (169.90965173369767 -46.3003389229685, 169.91627531997688 -46.30674380829356)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>169.9096517336977</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-46.3003389229685</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>169.9162753199769</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-46.30674380829356</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>169.9129635268373</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-46.30354136563103</v>
       </c>
     </row>
@@ -27991,27 +28011,28 @@
       <c r="P17" t="n">
         <v>281.8096715823773</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (169.90894203775076 -46.3007103051824, 169.91554875136845 -46.30712353687153)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>169.9089420377508</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-46.3007103051824</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>169.9155487513684</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-46.30712353687153</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>169.9122453945596</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-46.30391692102697</v>
       </c>
     </row>
@@ -28068,27 +28089,28 @@
       <c r="P18" t="n">
         <v>293.1109722083523</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (169.908230383222 -46.30107988949345, 169.91482020167297 -46.30750144627337)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>169.908230383222</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-46.30107988949345</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>169.914820201673</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-46.30750144627337</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>169.9115252924475</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-46.30429066788341</v>
       </c>
     </row>

--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S398"/>
+  <dimension ref="A1:S401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22526,6 +22526,195 @@
         </is>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>373.13</v>
+      </c>
+      <c r="C399" t="n">
+        <v>360.44</v>
+      </c>
+      <c r="D399" t="n">
+        <v>355.69</v>
+      </c>
+      <c r="E399" t="n">
+        <v>357.56</v>
+      </c>
+      <c r="F399" t="n">
+        <v>359.8371428571429</v>
+      </c>
+      <c r="G399" t="n">
+        <v>364.3425806451613</v>
+      </c>
+      <c r="H399" t="n">
+        <v>365.3466666666667</v>
+      </c>
+      <c r="I399" t="n">
+        <v>359.6166666666667</v>
+      </c>
+      <c r="J399" t="n">
+        <v>354.1814285714286</v>
+      </c>
+      <c r="K399" t="n">
+        <v>339.55</v>
+      </c>
+      <c r="L399" t="n">
+        <v>347.61</v>
+      </c>
+      <c r="M399" t="n">
+        <v>358.21</v>
+      </c>
+      <c r="N399" t="n">
+        <v>361.5</v>
+      </c>
+      <c r="O399" t="n">
+        <v>358.06</v>
+      </c>
+      <c r="P399" t="n">
+        <v>346.5828571428572</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>335.4754545454546</v>
+      </c>
+      <c r="R399" t="n">
+        <v>331.66</v>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>387.59</v>
+      </c>
+      <c r="C400" t="n">
+        <v>373.8733333333333</v>
+      </c>
+      <c r="D400" t="n">
+        <v>367.6633333333334</v>
+      </c>
+      <c r="E400" t="n">
+        <v>364.78</v>
+      </c>
+      <c r="F400" t="n">
+        <v>369.1457142857143</v>
+      </c>
+      <c r="G400" t="n">
+        <v>374.8861290322581</v>
+      </c>
+      <c r="H400" t="n">
+        <v>370.5062962962963</v>
+      </c>
+      <c r="I400" t="n">
+        <v>364.7762962962963</v>
+      </c>
+      <c r="J400" t="n">
+        <v>356.8371428571429</v>
+      </c>
+      <c r="K400" t="n">
+        <v>341.9033333333334</v>
+      </c>
+      <c r="L400" t="n">
+        <v>341.0544444444445</v>
+      </c>
+      <c r="M400" t="n">
+        <v>342.335</v>
+      </c>
+      <c r="N400" t="n">
+        <v>343.82</v>
+      </c>
+      <c r="O400" t="n">
+        <v>344.5766666666667</v>
+      </c>
+      <c r="P400" t="n">
+        <v>328.6842857142857</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>315.7081818181818</v>
+      </c>
+      <c r="R400" t="n">
+        <v>312.7666666666667</v>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>390.31</v>
+      </c>
+      <c r="C401" t="n">
+        <v>377.9766666666667</v>
+      </c>
+      <c r="D401" t="n">
+        <v>373.3666666666666</v>
+      </c>
+      <c r="E401" t="n">
+        <v>368.05</v>
+      </c>
+      <c r="F401" t="n">
+        <v>369.15</v>
+      </c>
+      <c r="G401" t="n">
+        <v>368.5529032258065</v>
+      </c>
+      <c r="H401" t="n">
+        <v>367.2481481481482</v>
+      </c>
+      <c r="I401" t="n">
+        <v>363.0981481481481</v>
+      </c>
+      <c r="J401" t="n">
+        <v>353.13</v>
+      </c>
+      <c r="K401" t="n">
+        <v>347.9966666666666</v>
+      </c>
+      <c r="L401" t="n">
+        <v>341.6622222222222</v>
+      </c>
+      <c r="M401" t="n">
+        <v>343.83</v>
+      </c>
+      <c r="N401" t="n">
+        <v>349.05</v>
+      </c>
+      <c r="O401" t="n">
+        <v>344.2633333333333</v>
+      </c>
+      <c r="P401" t="n">
+        <v>328.88</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>316.4518181818182</v>
+      </c>
+      <c r="R401" t="n">
+        <v>309.3933333333333</v>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22537,7 +22726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26645,6 +26834,36 @@
       </c>
       <c r="B410" t="n">
         <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.5600000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -26818,28 +27037,28 @@
         <v>0.0684</v>
       </c>
       <c r="I2" t="n">
-        <v>5.067665813930973</v>
+        <v>5.014375881545646</v>
       </c>
       <c r="J2" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6340232113509631</v>
+        <v>0.6312377219639012</v>
       </c>
       <c r="M2" t="n">
-        <v>23.75387212740966</v>
+        <v>23.81754248100694</v>
       </c>
       <c r="N2" t="n">
-        <v>819.1738949764725</v>
+        <v>819.8979290909585</v>
       </c>
       <c r="O2" t="n">
-        <v>28.62121407237073</v>
+        <v>28.63385983570777</v>
       </c>
       <c r="P2" t="n">
-        <v>283.194814537087</v>
+        <v>283.7148748082998</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -26896,28 +27115,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.24165479821936</v>
+        <v>5.173050195687132</v>
       </c>
       <c r="J3" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6663264056375813</v>
+        <v>0.6609683110657494</v>
       </c>
       <c r="M3" t="n">
-        <v>22.81969363008382</v>
+        <v>22.96192272297909</v>
       </c>
       <c r="N3" t="n">
-        <v>750.0720611209998</v>
+        <v>756.314478304379</v>
       </c>
       <c r="O3" t="n">
-        <v>27.38744349370711</v>
+        <v>27.50117230781952</v>
       </c>
       <c r="P3" t="n">
-        <v>273.8224811956669</v>
+        <v>274.4923349240859</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -26974,28 +27193,28 @@
         <v>0.1315</v>
       </c>
       <c r="I4" t="n">
-        <v>4.943383976919192</v>
+        <v>4.874522059827247</v>
       </c>
       <c r="J4" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6737256022211896</v>
+        <v>0.6674879133595226</v>
       </c>
       <c r="M4" t="n">
-        <v>21.28077780673142</v>
+        <v>21.42605919521125</v>
       </c>
       <c r="N4" t="n">
-        <v>646.8799621283547</v>
+        <v>654.0642269126439</v>
       </c>
       <c r="O4" t="n">
-        <v>25.43383498665419</v>
+        <v>25.57467940977255</v>
       </c>
       <c r="P4" t="n">
-        <v>276.264389586593</v>
+        <v>276.9330102231589</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27052,28 +27271,28 @@
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.966213500520911</v>
+        <v>4.891096243262571</v>
       </c>
       <c r="J5" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6898669166241601</v>
+        <v>0.6824693032595355</v>
       </c>
       <c r="M5" t="n">
-        <v>20.93680958977794</v>
+        <v>21.10891046604603</v>
       </c>
       <c r="N5" t="n">
-        <v>615.9005904547563</v>
+        <v>625.3006980422086</v>
       </c>
       <c r="O5" t="n">
-        <v>24.8173445488182</v>
+        <v>25.00601323766363</v>
       </c>
       <c r="P5" t="n">
-        <v>276.6023265354348</v>
+        <v>277.3187371532266</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27130,28 +27349,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.188920598856526</v>
+        <v>5.111415035094727</v>
       </c>
       <c r="J6" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7173225155042828</v>
+        <v>0.7097390186640612</v>
       </c>
       <c r="M6" t="n">
-        <v>20.72235568344368</v>
+        <v>20.92356314344007</v>
       </c>
       <c r="N6" t="n">
-        <v>604.3724888041186</v>
+        <v>615.314959766576</v>
       </c>
       <c r="O6" t="n">
-        <v>24.58398846412271</v>
+        <v>24.8055429242453</v>
       </c>
       <c r="P6" t="n">
-        <v>275.1258271390063</v>
+        <v>275.8551055787502</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27208,28 +27427,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.889226751877179</v>
+        <v>4.812345376223824</v>
       </c>
       <c r="J7" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7194480751903092</v>
+        <v>0.7110619803667464</v>
       </c>
       <c r="M7" t="n">
-        <v>19.56188074309647</v>
+        <v>19.76742129913261</v>
       </c>
       <c r="N7" t="n">
-        <v>532.88453463651</v>
+        <v>544.055393170098</v>
       </c>
       <c r="O7" t="n">
-        <v>23.08429194574765</v>
+        <v>23.32499503044101</v>
       </c>
       <c r="P7" t="n">
-        <v>285.4341233135336</v>
+        <v>286.1516957344076</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27286,28 +27505,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.107451699692973</v>
+        <v>5.024759499376615</v>
       </c>
       <c r="J8" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7350427289190765</v>
+        <v>0.7257635729816077</v>
       </c>
       <c r="M8" t="n">
-        <v>19.52885862718558</v>
+        <v>19.7776315584913</v>
       </c>
       <c r="N8" t="n">
-        <v>535.2091270614922</v>
+        <v>549.0301916627442</v>
       </c>
       <c r="O8" t="n">
-        <v>23.13458724640429</v>
+        <v>23.43139329324537</v>
       </c>
       <c r="P8" t="n">
-        <v>281.8898349058113</v>
+        <v>282.6664324307063</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27364,28 +27583,28 @@
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.309741704290814</v>
+        <v>5.215623588739775</v>
       </c>
       <c r="J9" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7519517581926014</v>
+        <v>0.740733915762525</v>
       </c>
       <c r="M9" t="n">
-        <v>19.45217189862682</v>
+        <v>19.76399415655515</v>
       </c>
       <c r="N9" t="n">
-        <v>523.0939910586528</v>
+        <v>541.5857791682791</v>
       </c>
       <c r="O9" t="n">
-        <v>22.87124813075694</v>
+        <v>23.27199559918056</v>
       </c>
       <c r="P9" t="n">
-        <v>276.0996030293786</v>
+        <v>276.9936934790562</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27442,28 +27661,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.367295858334796</v>
+        <v>5.264945300039939</v>
       </c>
       <c r="J10" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7287361447067234</v>
+        <v>0.7165138978413501</v>
       </c>
       <c r="M10" t="n">
-        <v>20.5996269645324</v>
+        <v>20.95396877960146</v>
       </c>
       <c r="N10" t="n">
-        <v>584.6738640070862</v>
+        <v>604.9218221239129</v>
       </c>
       <c r="O10" t="n">
-        <v>24.18003027308043</v>
+        <v>24.59515850983508</v>
       </c>
       <c r="P10" t="n">
-        <v>268.5710202856824</v>
+        <v>269.5701717650171</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27520,28 +27739,28 @@
         <v>0.1429</v>
       </c>
       <c r="I11" t="n">
-        <v>4.897613587177579</v>
+        <v>4.803532233546894</v>
       </c>
       <c r="J11" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K11" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7351324981295405</v>
+        <v>0.7227038140273385</v>
       </c>
       <c r="M11" t="n">
-        <v>18.89709244477107</v>
+        <v>19.16158712331489</v>
       </c>
       <c r="N11" t="n">
-        <v>488.0423102816444</v>
+        <v>505.9341077190406</v>
       </c>
       <c r="O11" t="n">
-        <v>22.09167966184655</v>
+        <v>22.49297907612597</v>
       </c>
       <c r="P11" t="n">
-        <v>265.7597470450717</v>
+        <v>266.6457803567041</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27598,28 +27817,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.863440496240766</v>
+        <v>4.779721406217782</v>
       </c>
       <c r="J12" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K12" t="n">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7271255705082356</v>
+        <v>0.7167381326747759</v>
       </c>
       <c r="M12" t="n">
-        <v>18.88379905001264</v>
+        <v>19.13023165499114</v>
       </c>
       <c r="N12" t="n">
-        <v>492.1325642022057</v>
+        <v>506.0407619819096</v>
       </c>
       <c r="O12" t="n">
-        <v>22.18406103945366</v>
+        <v>22.49534978572037</v>
       </c>
       <c r="P12" t="n">
-        <v>262.8459263155261</v>
+        <v>263.6566625608779</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27676,28 +27895,28 @@
         <v>0.1541</v>
       </c>
       <c r="I13" t="n">
-        <v>4.807274656908318</v>
+        <v>4.726751954524397</v>
       </c>
       <c r="J13" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K13" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7271521978405699</v>
+        <v>0.7170738320514541</v>
       </c>
       <c r="M13" t="n">
-        <v>18.48795682750947</v>
+        <v>18.73899956918943</v>
       </c>
       <c r="N13" t="n">
-        <v>472.5687613696576</v>
+        <v>485.7591489318943</v>
       </c>
       <c r="O13" t="n">
-        <v>21.73864672351197</v>
+        <v>22.03994439493653</v>
       </c>
       <c r="P13" t="n">
-        <v>268.0677723470511</v>
+        <v>268.8505013748014</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27754,28 +27973,28 @@
         <v>0.0698</v>
       </c>
       <c r="I14" t="n">
-        <v>4.86652203325508</v>
+        <v>4.780375392231653</v>
       </c>
       <c r="J14" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K14" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7251440617370328</v>
+        <v>0.713806320984045</v>
       </c>
       <c r="M14" t="n">
-        <v>17.60471561268182</v>
+        <v>17.86319498265674</v>
       </c>
       <c r="N14" t="n">
-        <v>462.0694754829997</v>
+        <v>476.6881556253952</v>
       </c>
       <c r="O14" t="n">
-        <v>21.49580134544883</v>
+        <v>21.83318931410148</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8703555093124</v>
+        <v>271.7555492426078</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -27832,28 +28051,28 @@
         <v>0.0877</v>
       </c>
       <c r="I15" t="n">
-        <v>3.758554291737189</v>
+        <v>3.681111127019997</v>
       </c>
       <c r="J15" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K15" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6677009694323244</v>
+        <v>0.6535956081826272</v>
       </c>
       <c r="M15" t="n">
-        <v>16.12617718291634</v>
+        <v>16.34482987932778</v>
       </c>
       <c r="N15" t="n">
-        <v>373.6006115901531</v>
+        <v>385.8867666084633</v>
       </c>
       <c r="O15" t="n">
-        <v>19.32875090610237</v>
+        <v>19.64400077907918</v>
       </c>
       <c r="P15" t="n">
-        <v>293.4497687310073</v>
+        <v>294.2189143684024</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -27910,28 +28129,28 @@
         <v>0.0936</v>
       </c>
       <c r="I16" t="n">
-        <v>3.507694686027251</v>
+        <v>3.425164885146428</v>
       </c>
       <c r="J16" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K16" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6029910588259977</v>
+        <v>0.5864942702707913</v>
       </c>
       <c r="M16" t="n">
-        <v>16.74927654034461</v>
+        <v>16.99601657358307</v>
       </c>
       <c r="N16" t="n">
-        <v>426.3996420568848</v>
+        <v>440.2925179634071</v>
       </c>
       <c r="O16" t="n">
-        <v>20.64944653149049</v>
+        <v>20.98314842828423</v>
       </c>
       <c r="P16" t="n">
-        <v>288.0413159269118</v>
+        <v>288.8649552998124</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -27988,28 +28207,28 @@
         <v>0.076</v>
       </c>
       <c r="I17" t="n">
-        <v>3.399272966476371</v>
+        <v>3.30969268755354</v>
       </c>
       <c r="J17" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K17" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5776004883157595</v>
+        <v>0.5584637502624152</v>
       </c>
       <c r="M17" t="n">
-        <v>16.96741937977579</v>
+        <v>17.26255788005546</v>
       </c>
       <c r="N17" t="n">
-        <v>447.5415591826899</v>
+        <v>464.0639180716689</v>
       </c>
       <c r="O17" t="n">
-        <v>21.15517807021936</v>
+        <v>21.54214283843808</v>
       </c>
       <c r="P17" t="n">
-        <v>281.8096715823773</v>
+        <v>282.6946281201443</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28066,28 +28285,28 @@
         <v>0.0891</v>
       </c>
       <c r="I18" t="n">
-        <v>2.801663671183181</v>
+        <v>2.713322384796824</v>
       </c>
       <c r="J18" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K18" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5067043804929837</v>
+        <v>0.4828081651339026</v>
       </c>
       <c r="M18" t="n">
-        <v>15.60078089555594</v>
+        <v>15.86917275328487</v>
       </c>
       <c r="N18" t="n">
-        <v>400.8306929381166</v>
+        <v>418.1675839764894</v>
       </c>
       <c r="O18" t="n">
-        <v>20.02075655259103</v>
+        <v>20.44914628967404</v>
       </c>
       <c r="P18" t="n">
-        <v>293.1109722083523</v>
+        <v>293.999123591757</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28125,7 +28344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S398"/>
+  <dimension ref="A1:S401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60703,6 +60922,297 @@
         </is>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-46.29919679999384,169.92359084006284</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-46.29934852803891,169.92270885656535</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-46.29956601580794,169.9218670336792</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-46.29983833117431,169.9210586935086</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-46.30011401751701,169.92025241229055</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-46.30040650870662,169.91946345774824</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-46.30068948928696,169.9186774166837</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-46.30093700006119,169.91785839225375</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>-46.30118843008877,169.9170361774818</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>-46.30136605710109,169.91615958388596</t>
+        </is>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>-46.3017058436471,169.91539539008576</t>
+        </is>
+      </c>
+      <c r="M399" t="inlineStr">
+        <is>
+          <t>-46.30205229912506,169.91463099127057</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr">
+        <is>
+          <t>-46.30233562203429,169.913839337192</t>
+        </is>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>-46.302589064655436,169.9130568372446</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>-46.30287247245324,169.9122715674168</t>
+        </is>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>-46.30316586446743,169.91147145630202</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>-46.303510681787465,169.91072464734972</t>
+        </is>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-46.29931656143714,169.92366397797056</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-46.29945978669486,169.92277680051873</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-46.29966518260827,169.92192759228325</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-46.29989812957697,169.92109521027976</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-46.30019111435033,169.92029949192502</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-46.30049311256813,169.91951917911246</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-46.30073119492016,169.91870677187055</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-46.30097838982653,169.9178886638547</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>-46.30120973389753,169.91705175841815</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>-46.30138511670262,169.91617286168199</t>
+        </is>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>-46.3016519332543,169.9153609508827</t>
+        </is>
+      </c>
+      <c r="M400" t="inlineStr">
+        <is>
+          <t>-46.30192097154555,169.91455017426833</t>
+        </is>
+      </c>
+      <c r="N400" t="inlineStr">
+        <is>
+          <t>-46.30219126868307,169.91374313737404</t>
+        </is>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>-46.30248519975023,169.91296653488476</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>-46.30274163375809,169.91213626554224</t>
+        </is>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>-46.303021176586846,169.91132240877408</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>-46.303372210689275,169.91058255331131</t>
+        </is>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-46.2993390891729,169.92367773561978</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-46.299493771651925,169.92279755466774</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-46.29971241934539,169.92195643861913</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-46.29992521278368,169.92111174906427</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-46.300191149846114,169.92029951360075</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-46.30044109196177,169.9194857087679</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-46.300704859090395,169.91868823496372</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>-46.300964927977724,169.91787881813713</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>-46.301179995659396,169.91703000880878</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>-46.30143446648598,169.9162072410595</t>
+        </is>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>-46.30165693138771,169.9153641438027</t>
+        </is>
+      </c>
+      <c r="M401" t="inlineStr">
+        <is>
+          <t>-46.30193333908984,169.9145577850504</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>-46.302233970502016,169.91377159462198</t>
+        </is>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>-46.30248278607798,169.9129644363914</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>-46.30274306443182,169.91213774501492</t>
+        </is>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>-46.30302661968639,169.9113280158644</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>-46.30334748718046,169.91055718303178</t>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S401"/>
+  <dimension ref="A1:S402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22715,6 +22715,69 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>390.28</v>
+      </c>
+      <c r="C402" t="n">
+        <v>379.2166666666667</v>
+      </c>
+      <c r="D402" t="n">
+        <v>373.7966666666666</v>
+      </c>
+      <c r="E402" t="n">
+        <v>369.82</v>
+      </c>
+      <c r="F402" t="n">
+        <v>370.4828571428571</v>
+      </c>
+      <c r="G402" t="n">
+        <v>372.36</v>
+      </c>
+      <c r="H402" t="n">
+        <v>368.3725925925926</v>
+      </c>
+      <c r="I402" t="n">
+        <v>363.0325925925926</v>
+      </c>
+      <c r="J402" t="n">
+        <v>355.5985714285715</v>
+      </c>
+      <c r="K402" t="n">
+        <v>342.0166666666667</v>
+      </c>
+      <c r="L402" t="n">
+        <v>344.7488888888889</v>
+      </c>
+      <c r="M402" t="n">
+        <v>347.95</v>
+      </c>
+      <c r="N402" t="n">
+        <v>346.4</v>
+      </c>
+      <c r="O402" t="n">
+        <v>344.8333333333333</v>
+      </c>
+      <c r="P402" t="n">
+        <v>330.3971428571429</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>321.2627272727273</v>
+      </c>
+      <c r="R402" t="n">
+        <v>316.1333333333333</v>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22726,7 +22789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26864,6 +26927,16 @@
       </c>
       <c r="B413" t="n">
         <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27110,28 @@
         <v>0.0684</v>
       </c>
       <c r="I2" t="n">
-        <v>5.014375881545646</v>
+        <v>5.000891105925816</v>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6312377219639012</v>
+        <v>0.6310411481203837</v>
       </c>
       <c r="M2" t="n">
-        <v>23.81754248100694</v>
+        <v>23.81571248217636</v>
       </c>
       <c r="N2" t="n">
-        <v>819.8979290909585</v>
+        <v>818.8742226555815</v>
       </c>
       <c r="O2" t="n">
-        <v>28.63385983570777</v>
+        <v>28.61597845008242</v>
       </c>
       <c r="P2" t="n">
-        <v>283.7148748082998</v>
+        <v>283.847074247572</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27115,28 +27188,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.173050195687132</v>
+        <v>5.155796353751729</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K3" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6609683110657494</v>
+        <v>0.6602169992077925</v>
       </c>
       <c r="M3" t="n">
-        <v>22.96192272297909</v>
+        <v>22.97909084813746</v>
       </c>
       <c r="N3" t="n">
-        <v>756.314478304379</v>
+        <v>756.4311000098127</v>
       </c>
       <c r="O3" t="n">
-        <v>27.50117230781952</v>
+        <v>27.50329253034649</v>
       </c>
       <c r="P3" t="n">
-        <v>274.4923349240859</v>
+        <v>274.6615173585599</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27193,28 +27266,28 @@
         <v>0.1315</v>
       </c>
       <c r="I4" t="n">
-        <v>4.874522059827247</v>
+        <v>4.857085983851037</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K4" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6674879133595226</v>
+        <v>0.6665275675746687</v>
       </c>
       <c r="M4" t="n">
-        <v>21.42605919521125</v>
+        <v>21.44632095768407</v>
       </c>
       <c r="N4" t="n">
-        <v>654.0642269126439</v>
+        <v>654.5324586931026</v>
       </c>
       <c r="O4" t="n">
-        <v>25.57467940977255</v>
+        <v>25.5838319782847</v>
       </c>
       <c r="P4" t="n">
-        <v>276.9330102231589</v>
+        <v>277.1030234164012</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27271,28 +27344,28 @@
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.891096243262571</v>
+        <v>4.870561334718776</v>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K5" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6824693032595355</v>
+        <v>0.6809288969138594</v>
       </c>
       <c r="M5" t="n">
-        <v>21.10891046604603</v>
+        <v>21.14477863086003</v>
       </c>
       <c r="N5" t="n">
-        <v>625.3006980422086</v>
+        <v>626.7874807910155</v>
       </c>
       <c r="O5" t="n">
-        <v>25.00601323766363</v>
+        <v>25.03572409160589</v>
       </c>
       <c r="P5" t="n">
-        <v>277.3187371532266</v>
+        <v>277.5153619475294</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27349,28 +27422,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.111415035094727</v>
+        <v>5.088895151356842</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K6" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7097390186640612</v>
+        <v>0.7078750031109251</v>
       </c>
       <c r="M6" t="n">
-        <v>20.92356314344007</v>
+        <v>20.97306461157758</v>
       </c>
       <c r="N6" t="n">
-        <v>615.314959766576</v>
+        <v>617.644939973852</v>
       </c>
       <c r="O6" t="n">
-        <v>24.8055429242453</v>
+        <v>24.8524634588576</v>
       </c>
       <c r="P6" t="n">
-        <v>275.8551055787502</v>
+        <v>276.0678698844479</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27427,28 +27500,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.812345376223824</v>
+        <v>4.78925001409276</v>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K7" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7110619803667464</v>
+        <v>0.7088087789847057</v>
       </c>
       <c r="M7" t="n">
-        <v>19.76742129913261</v>
+        <v>19.82360801108538</v>
       </c>
       <c r="N7" t="n">
-        <v>544.055393170098</v>
+        <v>546.7851915795032</v>
       </c>
       <c r="O7" t="n">
-        <v>23.32499503044101</v>
+        <v>23.38343840369725</v>
       </c>
       <c r="P7" t="n">
-        <v>286.1516957344076</v>
+        <v>286.368100701242</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27505,28 +27578,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.024759499376615</v>
+        <v>4.998274564239781</v>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K8" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7257635729816077</v>
+        <v>0.7228479996643871</v>
       </c>
       <c r="M8" t="n">
-        <v>19.7776315584913</v>
+        <v>19.85578734720545</v>
       </c>
       <c r="N8" t="n">
-        <v>549.0301916627442</v>
+        <v>553.2385792837015</v>
       </c>
       <c r="O8" t="n">
-        <v>23.43139329324537</v>
+        <v>23.5210241971667</v>
       </c>
       <c r="P8" t="n">
-        <v>282.6664324307063</v>
+        <v>282.9161164002278</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27583,28 +27656,28 @@
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.215623588739775</v>
+        <v>5.185393919218424</v>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K9" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L9" t="n">
-        <v>0.740733915762525</v>
+        <v>0.7371772243477746</v>
       </c>
       <c r="M9" t="n">
-        <v>19.76399415655515</v>
+        <v>19.86662707761343</v>
       </c>
       <c r="N9" t="n">
-        <v>541.5857791682791</v>
+        <v>547.2964989757411</v>
       </c>
       <c r="O9" t="n">
-        <v>23.27199559918056</v>
+        <v>23.39436895869904</v>
       </c>
       <c r="P9" t="n">
-        <v>276.9936934790562</v>
+        <v>277.2819675958991</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27661,28 +27734,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.264945300039939</v>
+        <v>5.232344199036722</v>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K10" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7165138978413501</v>
+        <v>0.712696269049639</v>
       </c>
       <c r="M10" t="n">
-        <v>20.95396877960146</v>
+        <v>21.06294542845609</v>
       </c>
       <c r="N10" t="n">
-        <v>604.9218221239129</v>
+        <v>611.0461698323486</v>
       </c>
       <c r="O10" t="n">
-        <v>24.59515850983508</v>
+        <v>24.7193480867184</v>
       </c>
       <c r="P10" t="n">
-        <v>269.5701717650171</v>
+        <v>269.8895843451908</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27739,28 +27812,28 @@
         <v>0.1429</v>
       </c>
       <c r="I11" t="n">
-        <v>4.803532233546894</v>
+        <v>4.772297428112723</v>
       </c>
       <c r="J11" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K11" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7227038140273385</v>
+        <v>0.7184832059630542</v>
       </c>
       <c r="M11" t="n">
-        <v>19.16158712331489</v>
+        <v>19.248486180139</v>
       </c>
       <c r="N11" t="n">
-        <v>505.9341077190406</v>
+        <v>511.9373590867869</v>
       </c>
       <c r="O11" t="n">
-        <v>22.49297907612597</v>
+        <v>22.6260327739263</v>
       </c>
       <c r="P11" t="n">
-        <v>266.6457803567041</v>
+        <v>266.9410996572078</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27817,28 +27890,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.779721406217782</v>
+        <v>4.753350123449038</v>
       </c>
       <c r="J12" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K12" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7167381326747759</v>
+        <v>0.7135902616194412</v>
       </c>
       <c r="M12" t="n">
-        <v>19.13023165499114</v>
+        <v>19.20334837755059</v>
       </c>
       <c r="N12" t="n">
-        <v>506.0407619819096</v>
+        <v>510.0727912893701</v>
       </c>
       <c r="O12" t="n">
-        <v>22.49534978572037</v>
+        <v>22.58479115000558</v>
       </c>
       <c r="P12" t="n">
-        <v>263.6566625608779</v>
+        <v>263.9129537043866</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27895,28 +27968,28 @@
         <v>0.1541</v>
       </c>
       <c r="I13" t="n">
-        <v>4.726751954524397</v>
+        <v>4.700477312449785</v>
       </c>
       <c r="J13" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K13" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7170738320514541</v>
+        <v>0.7138384895724945</v>
       </c>
       <c r="M13" t="n">
-        <v>18.73899956918943</v>
+        <v>18.82286997969009</v>
       </c>
       <c r="N13" t="n">
-        <v>485.7591489318943</v>
+        <v>489.8440475987676</v>
       </c>
       <c r="O13" t="n">
-        <v>22.03994439493653</v>
+        <v>22.13242073517417</v>
       </c>
       <c r="P13" t="n">
-        <v>268.8505013748014</v>
+        <v>269.1067170364806</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -27973,28 +28046,28 @@
         <v>0.0698</v>
       </c>
       <c r="I14" t="n">
-        <v>4.780375392231653</v>
+        <v>4.74910948168871</v>
       </c>
       <c r="J14" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K14" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L14" t="n">
-        <v>0.713806320984045</v>
+        <v>0.7092777885340655</v>
       </c>
       <c r="M14" t="n">
-        <v>17.86319498265674</v>
+        <v>17.96201547987228</v>
       </c>
       <c r="N14" t="n">
-        <v>476.6881556253952</v>
+        <v>482.6557107444171</v>
       </c>
       <c r="O14" t="n">
-        <v>21.83318931410148</v>
+        <v>21.96942672771452</v>
       </c>
       <c r="P14" t="n">
-        <v>271.7555492426078</v>
+        <v>272.0778391880201</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28051,28 +28124,28 @@
         <v>0.0877</v>
       </c>
       <c r="I15" t="n">
-        <v>3.681111127019997</v>
+        <v>3.653382623413893</v>
       </c>
       <c r="J15" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K15" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6535956081826272</v>
+        <v>0.6481400745825219</v>
       </c>
       <c r="M15" t="n">
-        <v>16.34482987932778</v>
+        <v>16.42910702352571</v>
       </c>
       <c r="N15" t="n">
-        <v>385.8867666084633</v>
+        <v>390.7456044345556</v>
       </c>
       <c r="O15" t="n">
-        <v>19.64400077907918</v>
+        <v>19.76728621825858</v>
       </c>
       <c r="P15" t="n">
-        <v>294.2189143684024</v>
+        <v>294.4951659603972</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28129,28 +28202,28 @@
         <v>0.0936</v>
       </c>
       <c r="I16" t="n">
-        <v>3.425164885146428</v>
+        <v>3.39568371164904</v>
       </c>
       <c r="J16" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K16" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5864942702707913</v>
+        <v>0.580234774950744</v>
       </c>
       <c r="M16" t="n">
-        <v>16.99601657358307</v>
+        <v>17.08762972469179</v>
       </c>
       <c r="N16" t="n">
-        <v>440.2925179634071</v>
+        <v>445.6716830343687</v>
       </c>
       <c r="O16" t="n">
-        <v>20.98314842828423</v>
+        <v>21.11093752144534</v>
       </c>
       <c r="P16" t="n">
-        <v>288.8649552998124</v>
+        <v>289.1600536136743</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28207,28 +28280,28 @@
         <v>0.076</v>
       </c>
       <c r="I17" t="n">
-        <v>3.30969268755354</v>
+        <v>3.279881289114518</v>
       </c>
       <c r="J17" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K17" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5584637502624152</v>
+        <v>0.5521149700331303</v>
       </c>
       <c r="M17" t="n">
-        <v>17.26255788005546</v>
+        <v>17.36157967886827</v>
       </c>
       <c r="N17" t="n">
-        <v>464.0639180716689</v>
+        <v>469.3989504088003</v>
       </c>
       <c r="O17" t="n">
-        <v>21.54214283843808</v>
+        <v>21.66561677886878</v>
       </c>
       <c r="P17" t="n">
-        <v>282.6946281201443</v>
+        <v>282.9900064674803</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28285,28 +28358,28 @@
         <v>0.0891</v>
       </c>
       <c r="I18" t="n">
-        <v>2.713322384796824</v>
+        <v>2.683592794455973</v>
       </c>
       <c r="J18" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K18" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4828081651339026</v>
+        <v>0.474804932773736</v>
       </c>
       <c r="M18" t="n">
-        <v>15.86917275328487</v>
+        <v>15.96233699725107</v>
       </c>
       <c r="N18" t="n">
-        <v>418.1675839764894</v>
+        <v>423.88500112432</v>
       </c>
       <c r="O18" t="n">
-        <v>20.44914628967404</v>
+        <v>20.58846767305231</v>
       </c>
       <c r="P18" t="n">
-        <v>293.999123591757</v>
+        <v>294.2988935966024</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28344,7 +28417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S401"/>
+  <dimension ref="A1:S402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61213,6 +61286,103 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-05 22:14:00+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-46.29933884070523,169.92367758388093</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-46.29950404167891,169.92280382643824</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-46.299715980735606,169.92195861347636</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-46.29993987250018,169.92112070125697</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-46.30020218903218,169.92030625475593</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>-46.30047236314888,169.9195058288138</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>-46.30071394805047,169.91869463237555</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>-46.300964402101016,169.91787843352188</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>-46.30119979823225,169.91704449178312</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>-46.30138603458706,169.9161735011228</t>
+        </is>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>-46.30168231495984,169.91538035940857</t>
+        </is>
+      </c>
+      <c r="M402" t="inlineStr">
+        <is>
+          <t>-46.30196742221958,169.91457875926295</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>-46.30221233382589,169.91375717555218</t>
+        </is>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>-46.30248717690723,169.91296825386354</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>-46.30275415476337,169.9121492136308</t>
+        </is>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>-46.30306183347343,169.91136429061225</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>-46.30339688533224,169.91060787347445</t>
+        </is>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S402"/>
+  <dimension ref="A1:S404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22778,6 +22778,130 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>370.81</v>
+      </c>
+      <c r="C403" t="n">
+        <v>354.82</v>
+      </c>
+      <c r="D403" t="n">
+        <v>356.31</v>
+      </c>
+      <c r="E403" t="n">
+        <v>351.62</v>
+      </c>
+      <c r="F403" t="n">
+        <v>352.4457142857143</v>
+      </c>
+      <c r="G403" t="n">
+        <v>359.8738709677419</v>
+      </c>
+      <c r="H403" t="n">
+        <v>358.22</v>
+      </c>
+      <c r="I403" t="n">
+        <v>340.82</v>
+      </c>
+      <c r="J403" t="n">
+        <v>323.7171428571428</v>
+      </c>
+      <c r="K403" t="n">
+        <v>307.98</v>
+      </c>
+      <c r="L403" t="n">
+        <v>303.31</v>
+      </c>
+      <c r="M403" t="n">
+        <v>297.4</v>
+      </c>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="n">
+        <v>309.37</v>
+      </c>
+      <c r="P403" t="n">
+        <v>283.0042857142857</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>279.2181818181818</v>
+      </c>
+      <c r="R403" t="n">
+        <v>293.19</v>
+      </c>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>363.42</v>
+      </c>
+      <c r="C404" t="n">
+        <v>366.42</v>
+      </c>
+      <c r="D404" t="n">
+        <v>358.96</v>
+      </c>
+      <c r="E404" t="n">
+        <v>360.59</v>
+      </c>
+      <c r="F404" t="n">
+        <v>361.6442857142857</v>
+      </c>
+      <c r="G404" t="n">
+        <v>371.8661290322581</v>
+      </c>
+      <c r="H404" t="n">
+        <v>367.67</v>
+      </c>
+      <c r="I404" t="n">
+        <v>361.34</v>
+      </c>
+      <c r="J404" t="n">
+        <v>346.9428571428572</v>
+      </c>
+      <c r="K404" t="n">
+        <v>332.75</v>
+      </c>
+      <c r="L404" t="n">
+        <v>337.66</v>
+      </c>
+      <c r="M404" t="n">
+        <v>333.09</v>
+      </c>
+      <c r="N404" t="n">
+        <v>332.35</v>
+      </c>
+      <c r="O404" t="n">
+        <v>335.64</v>
+      </c>
+      <c r="P404" t="n">
+        <v>320.1957142857143</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>309.3918181818182</v>
+      </c>
+      <c r="R404" t="n">
+        <v>314.29</v>
+      </c>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22789,7 +22913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B414"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26937,6 +27061,26 @@
       </c>
       <c r="B414" t="n">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -27110,28 +27254,28 @@
         <v>0.0684</v>
       </c>
       <c r="I2" t="n">
-        <v>5.000891105925816</v>
+        <v>4.946240513276502</v>
       </c>
       <c r="J2" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6310411481203837</v>
+        <v>0.6252087518172638</v>
       </c>
       <c r="M2" t="n">
-        <v>23.81571248217636</v>
+        <v>23.9596451224118</v>
       </c>
       <c r="N2" t="n">
-        <v>818.8742226555815</v>
+        <v>826.7680517921787</v>
       </c>
       <c r="O2" t="n">
-        <v>28.61597845008242</v>
+        <v>28.75357459155607</v>
       </c>
       <c r="P2" t="n">
-        <v>283.847074247572</v>
+        <v>284.3854688659715</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27188,28 +27332,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.155796353751729</v>
+        <v>5.098950156137057</v>
       </c>
       <c r="J3" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K3" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6602169992077925</v>
+        <v>0.6541183177723442</v>
       </c>
       <c r="M3" t="n">
-        <v>22.97909084813746</v>
+        <v>23.12609413764259</v>
       </c>
       <c r="N3" t="n">
-        <v>756.4311000098127</v>
+        <v>765.4694111747679</v>
       </c>
       <c r="O3" t="n">
-        <v>27.50329253034649</v>
+        <v>27.66711786895715</v>
       </c>
       <c r="P3" t="n">
-        <v>274.6615173585599</v>
+        <v>275.2214852946155</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27266,28 +27410,28 @@
         <v>0.1315</v>
       </c>
       <c r="I4" t="n">
-        <v>4.857085983851037</v>
+        <v>4.802781128143986</v>
       </c>
       <c r="J4" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6665275675746687</v>
+        <v>0.6603192324098529</v>
       </c>
       <c r="M4" t="n">
-        <v>21.44632095768407</v>
+        <v>21.58704823124724</v>
       </c>
       <c r="N4" t="n">
-        <v>654.5324586931026</v>
+        <v>662.7274926682783</v>
       </c>
       <c r="O4" t="n">
-        <v>25.5838319782847</v>
+        <v>25.74349418140976</v>
       </c>
       <c r="P4" t="n">
-        <v>277.1030234164012</v>
+        <v>277.6349825432519</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27344,28 +27488,28 @@
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.870561334718776</v>
+        <v>4.813044800047783</v>
       </c>
       <c r="J5" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K5" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6809288969138594</v>
+        <v>0.6739433562682011</v>
       </c>
       <c r="M5" t="n">
-        <v>21.14477863086003</v>
+        <v>21.3002848168073</v>
       </c>
       <c r="N5" t="n">
-        <v>626.7874807910155</v>
+        <v>636.6363690146258</v>
       </c>
       <c r="O5" t="n">
-        <v>25.03572409160589</v>
+        <v>25.23165410777949</v>
       </c>
       <c r="P5" t="n">
-        <v>277.5153619475294</v>
+        <v>278.068629228813</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27422,28 +27566,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.088895151356842</v>
+        <v>5.027951459228571</v>
       </c>
       <c r="J6" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K6" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7078750031109251</v>
+        <v>0.7003215156946021</v>
       </c>
       <c r="M6" t="n">
-        <v>20.97306461157758</v>
+        <v>21.15147526454421</v>
       </c>
       <c r="N6" t="n">
-        <v>617.644939973852</v>
+        <v>629.6936290552371</v>
       </c>
       <c r="O6" t="n">
-        <v>24.8524634588576</v>
+        <v>25.09369699855398</v>
       </c>
       <c r="P6" t="n">
-        <v>276.0678698844479</v>
+        <v>276.6464141403701</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27500,28 +27644,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.78925001409276</v>
+        <v>4.735593640431097</v>
       </c>
       <c r="J7" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K7" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7088087789847057</v>
+        <v>0.7023046444792846</v>
       </c>
       <c r="M7" t="n">
-        <v>19.82360801108538</v>
+        <v>19.97445204944099</v>
       </c>
       <c r="N7" t="n">
-        <v>546.7851915795032</v>
+        <v>555.6821890305196</v>
       </c>
       <c r="O7" t="n">
-        <v>23.38343840369725</v>
+        <v>23.57291218815612</v>
       </c>
       <c r="P7" t="n">
-        <v>286.368100701242</v>
+        <v>286.8732417895121</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27578,28 +27722,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.998274564239781</v>
+        <v>4.939297745870753</v>
       </c>
       <c r="J8" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K8" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7228479996643871</v>
+        <v>0.7153557342628144</v>
       </c>
       <c r="M8" t="n">
-        <v>19.85578734720545</v>
+        <v>20.04105686500445</v>
       </c>
       <c r="N8" t="n">
-        <v>553.2385792837015</v>
+        <v>564.733031810085</v>
       </c>
       <c r="O8" t="n">
-        <v>23.5210241971667</v>
+        <v>23.76411226640046</v>
       </c>
       <c r="P8" t="n">
-        <v>282.9161164002278</v>
+        <v>283.4747579913436</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27656,28 +27800,28 @@
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.185393919218424</v>
+        <v>5.110771318793137</v>
       </c>
       <c r="J9" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K9" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7371772243477746</v>
+        <v>0.7258549173777684</v>
       </c>
       <c r="M9" t="n">
-        <v>19.86662707761343</v>
+        <v>20.14782415067144</v>
       </c>
       <c r="N9" t="n">
-        <v>547.2964989757411</v>
+        <v>567.3662762615342</v>
       </c>
       <c r="O9" t="n">
-        <v>23.39436895869904</v>
+        <v>23.81945163645742</v>
       </c>
       <c r="P9" t="n">
-        <v>277.2819675958991</v>
+        <v>277.9969077600732</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27734,28 +27878,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.232344199036722</v>
+        <v>5.141508542710632</v>
       </c>
       <c r="J10" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K10" t="n">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L10" t="n">
-        <v>0.712696269049639</v>
+        <v>0.6974239044396291</v>
       </c>
       <c r="M10" t="n">
-        <v>21.06294542845609</v>
+        <v>21.42007649654812</v>
       </c>
       <c r="N10" t="n">
-        <v>611.0461698323486</v>
+        <v>639.7947017564659</v>
       </c>
       <c r="O10" t="n">
-        <v>24.7193480867184</v>
+        <v>25.2941633930926</v>
       </c>
       <c r="P10" t="n">
-        <v>269.8895843451908</v>
+        <v>270.7836315099854</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27812,28 +27956,28 @@
         <v>0.1429</v>
       </c>
       <c r="I11" t="n">
-        <v>4.772297428112723</v>
+        <v>4.682932220747326</v>
       </c>
       <c r="J11" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K11" t="n">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7184832059630542</v>
+        <v>0.7007977336752734</v>
       </c>
       <c r="M11" t="n">
-        <v>19.248486180139</v>
+        <v>19.54974958281665</v>
       </c>
       <c r="N11" t="n">
-        <v>511.9373590867869</v>
+        <v>541.3091901744585</v>
       </c>
       <c r="O11" t="n">
-        <v>22.6260327739263</v>
+        <v>23.26605231177946</v>
       </c>
       <c r="P11" t="n">
-        <v>266.9410996572078</v>
+        <v>267.7899579282138</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -27890,28 +28034,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.753350123449038</v>
+        <v>4.67091661707233</v>
       </c>
       <c r="J12" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K12" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7135902616194412</v>
+        <v>0.6972370733831325</v>
       </c>
       <c r="M12" t="n">
-        <v>19.20334837755059</v>
+        <v>19.503614540095</v>
       </c>
       <c r="N12" t="n">
-        <v>510.0727912893701</v>
+        <v>536.6650340316611</v>
       </c>
       <c r="O12" t="n">
-        <v>22.58479115000558</v>
+        <v>23.16603190085996</v>
       </c>
       <c r="P12" t="n">
-        <v>263.9129537043866</v>
+        <v>264.7178046091616</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -27968,28 +28112,28 @@
         <v>0.1541</v>
       </c>
       <c r="I13" t="n">
-        <v>4.700477312449785</v>
+        <v>4.608437151363428</v>
       </c>
       <c r="J13" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K13" t="n">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7138384895724945</v>
+        <v>0.6932881285647561</v>
       </c>
       <c r="M13" t="n">
-        <v>18.82286997969009</v>
+        <v>19.20132867679989</v>
       </c>
       <c r="N13" t="n">
-        <v>489.8440475987676</v>
+        <v>523.4101614990067</v>
       </c>
       <c r="O13" t="n">
-        <v>22.13242073517417</v>
+        <v>22.87815904960464</v>
       </c>
       <c r="P13" t="n">
-        <v>269.1067170364806</v>
+        <v>270.0082554251287</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28046,28 +28190,28 @@
         <v>0.0698</v>
       </c>
       <c r="I14" t="n">
-        <v>4.74910948168871</v>
+        <v>4.708704700871211</v>
       </c>
       <c r="J14" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K14" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7092777885340655</v>
+        <v>0.7018119901785616</v>
       </c>
       <c r="M14" t="n">
-        <v>17.96201547987228</v>
+        <v>18.104902321078</v>
       </c>
       <c r="N14" t="n">
-        <v>482.6557107444171</v>
+        <v>493.5956745016802</v>
       </c>
       <c r="O14" t="n">
-        <v>21.96942672771452</v>
+        <v>22.21701317688046</v>
       </c>
       <c r="P14" t="n">
-        <v>272.0778391880201</v>
+        <v>272.4964556405575</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28124,28 +28268,28 @@
         <v>0.0877</v>
       </c>
       <c r="I15" t="n">
-        <v>3.653382623413893</v>
+        <v>3.570839151600329</v>
       </c>
       <c r="J15" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K15" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6481400745825219</v>
+        <v>0.6244973346983532</v>
       </c>
       <c r="M15" t="n">
-        <v>16.42910702352571</v>
+        <v>16.74235374616697</v>
       </c>
       <c r="N15" t="n">
-        <v>390.7456044345556</v>
+        <v>416.4659185322027</v>
       </c>
       <c r="O15" t="n">
-        <v>19.76728621825858</v>
+        <v>20.40749662580403</v>
       </c>
       <c r="P15" t="n">
-        <v>294.4951659603972</v>
+        <v>295.3211563873811</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28202,28 +28346,28 @@
         <v>0.0936</v>
       </c>
       <c r="I16" t="n">
-        <v>3.39568371164904</v>
+        <v>3.301476634846946</v>
       </c>
       <c r="J16" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K16" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L16" t="n">
-        <v>0.580234774950744</v>
+        <v>0.550089366294865</v>
       </c>
       <c r="M16" t="n">
-        <v>17.08762972469179</v>
+        <v>17.44430629452218</v>
       </c>
       <c r="N16" t="n">
-        <v>445.6716830343687</v>
+        <v>479.8052920224773</v>
       </c>
       <c r="O16" t="n">
-        <v>21.11093752144534</v>
+        <v>21.90445826818087</v>
       </c>
       <c r="P16" t="n">
-        <v>289.1600536136743</v>
+        <v>290.1071209900094</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28280,28 +28424,28 @@
         <v>0.076</v>
       </c>
       <c r="I17" t="n">
-        <v>3.279881289114518</v>
+        <v>3.187006912035027</v>
       </c>
       <c r="J17" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K17" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5521149700331303</v>
+        <v>0.5234805989471198</v>
       </c>
       <c r="M17" t="n">
-        <v>17.36157967886827</v>
+        <v>17.73207857246675</v>
       </c>
       <c r="N17" t="n">
-        <v>469.3989504088003</v>
+        <v>501.1299310933335</v>
       </c>
       <c r="O17" t="n">
-        <v>21.66561677886878</v>
+        <v>22.38593154401517</v>
       </c>
       <c r="P17" t="n">
-        <v>282.9900064674803</v>
+        <v>283.9142066432587</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28358,28 +28502,28 @@
         <v>0.0891</v>
       </c>
       <c r="I18" t="n">
-        <v>2.683592794455973</v>
+        <v>2.609712893455489</v>
       </c>
       <c r="J18" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K18" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L18" t="n">
-        <v>0.474804932773736</v>
+        <v>0.4513088420905709</v>
       </c>
       <c r="M18" t="n">
-        <v>15.96233699725107</v>
+        <v>16.22380144682996</v>
       </c>
       <c r="N18" t="n">
-        <v>423.88500112432</v>
+        <v>443.7442654333457</v>
       </c>
       <c r="O18" t="n">
-        <v>20.58846767305231</v>
+        <v>21.06523831893069</v>
       </c>
       <c r="P18" t="n">
-        <v>294.2988935966024</v>
+        <v>295.0471190898577</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28417,7 +28561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S402"/>
+  <dimension ref="A1:S404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34156,7 +34300,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-46.301280505867794,169.9141560471957</t>
+          <t>-46.30128050586779,169.9141560471957</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -39043,7 +39187,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-46.29924762220488,169.92264723517025</t>
+          <t>-46.299247622204874,169.92264723517025</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -48898,7 +49042,7 @@
       </c>
       <c r="R254" t="inlineStr">
         <is>
-          <t>-46.30350987558712,169.91072382005353</t>
+          <t>-46.30350987558711,169.91072382005353</t>
         </is>
       </c>
       <c r="S254" t="inlineStr">
@@ -55503,7 +55647,7 @@
       </c>
       <c r="R335" t="inlineStr">
         <is>
-          <t>-46.3037700825725,169.9109908374185</t>
+          <t>-46.303770082572505,169.9109908374185</t>
         </is>
       </c>
       <c r="S335" t="inlineStr">
@@ -61383,6 +61527,196 @@
         </is>
       </c>
     </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-05 22:20:11+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-46.299177585152634,169.92357910565545</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-46.299301981603094,169.92268043145685</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-46.29957115083782,169.92187016950376</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-46.299789134142806,169.92102865068253</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-46.300052799116955,169.92021502901318</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-46.30036980307622,169.9194398412153</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-46.300631883950125,169.91863687031142</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-46.300786215995146,169.91774811239017</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>-46.300944049252976,169.91685744595924</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>-46.30111037214431,169.91598146293137</t>
+        </is>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>-46.30134153713655,169.9151626640678</t>
+        </is>
+      </c>
+      <c r="M403" t="inlineStr">
+        <is>
+          <t>-46.301549241837925,169.91432141963364</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr"/>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>-46.30221399521108,169.91273074573147</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>-46.302407711939736,169.91179095653715</t>
+        </is>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>-46.30275408511232,169.91104727198424</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>-46.30322873120299,169.91043532076884</t>
+        </is>
+      </c>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:14:10+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-46.29911637925052,169.92354172757447</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-46.29939805609015,169.92273910255045</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-46.29959309894858,169.9218835726311</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-46.29986342662708,169.9210740184046</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-46.30012898490541,169.92026155220344</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-46.300468306532586,169.91950321876425</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-46.30070826894732,169.9186906350465</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-46.30095082438027,169.9178685030635</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-46.30113036316202,169.9169937092229</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>-46.30131098402388,169.9161212175003</t>
+        </is>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>-46.30162401863205,169.91534311840587</t>
+        </is>
+      </c>
+      <c r="M404" t="inlineStr">
+        <is>
+          <t>-46.30184449130367,169.91450310967298</t>
+        </is>
+      </c>
+      <c r="N404" t="inlineStr">
+        <is>
+          <t>-46.30209761859164,169.91368072746062</t>
+        </is>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>-46.30241635872305,169.91290668324604</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>-46.302679582184126,169.91207209753637</t>
+        </is>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>-46.302974943501326,169.9112747828238</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>-46.3033833753551,169.9105940100556</t>
+        </is>
+      </c>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S404"/>
+  <dimension ref="A1:S411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22902,6 +22902,439 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>363.73</v>
+      </c>
+      <c r="C405" t="n">
+        <v>350.8766666666667</v>
+      </c>
+      <c r="D405" t="n">
+        <v>348.5166666666667</v>
+      </c>
+      <c r="E405" t="n">
+        <v>347.09</v>
+      </c>
+      <c r="F405" t="n">
+        <v>339.7785714285714</v>
+      </c>
+      <c r="G405" t="n">
+        <v>349.0545161290323</v>
+      </c>
+      <c r="H405" t="n">
+        <v>343.3603703703704</v>
+      </c>
+      <c r="I405" t="n">
+        <v>325.4803703703704</v>
+      </c>
+      <c r="J405" t="n">
+        <v>318.2357142857143</v>
+      </c>
+      <c r="K405" t="n">
+        <v>309.0366666666666</v>
+      </c>
+      <c r="L405" t="n">
+        <v>307.8455555555556</v>
+      </c>
+      <c r="M405" t="n">
+        <v>303.4</v>
+      </c>
+      <c r="N405" t="n">
+        <v>293.58</v>
+      </c>
+      <c r="O405" t="n">
+        <v>315.2633333333333</v>
+      </c>
+      <c r="P405" t="n">
+        <v>293.3214285714286</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>286.7081818181818</v>
+      </c>
+      <c r="R405" t="n">
+        <v>304.3633333333333</v>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>360.25</v>
+      </c>
+      <c r="C406" t="n">
+        <v>353.41</v>
+      </c>
+      <c r="D406" t="n">
+        <v>341.79</v>
+      </c>
+      <c r="E406" t="n">
+        <v>347.23</v>
+      </c>
+      <c r="F406" t="n">
+        <v>348.5842857142857</v>
+      </c>
+      <c r="G406" t="n">
+        <v>357.7609677419355</v>
+      </c>
+      <c r="H406" t="n">
+        <v>353.2155555555556</v>
+      </c>
+      <c r="I406" t="n">
+        <v>349.9555555555555</v>
+      </c>
+      <c r="J406" t="n">
+        <v>341.0828571428572</v>
+      </c>
+      <c r="K406" t="n">
+        <v>322.7</v>
+      </c>
+      <c r="L406" t="n">
+        <v>327.4033333333333</v>
+      </c>
+      <c r="M406" t="n">
+        <v>323.015</v>
+      </c>
+      <c r="N406" t="n">
+        <v>307.87</v>
+      </c>
+      <c r="O406" t="n">
+        <v>312.37</v>
+      </c>
+      <c r="P406" t="n">
+        <v>297.4957142857143</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>278.62</v>
+      </c>
+      <c r="R406" t="n">
+        <v>300.22</v>
+      </c>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="n">
+        <v>357.91</v>
+      </c>
+      <c r="G407" t="n">
+        <v>362.5116129032258</v>
+      </c>
+      <c r="H407" t="n">
+        <v>355.2485185185185</v>
+      </c>
+      <c r="I407" t="n">
+        <v>347.4085185185185</v>
+      </c>
+      <c r="J407" t="n">
+        <v>339.26</v>
+      </c>
+      <c r="K407" t="n">
+        <v>331.2933333333333</v>
+      </c>
+      <c r="L407" t="n">
+        <v>323.0377777777778</v>
+      </c>
+      <c r="M407" t="n">
+        <v>327.465</v>
+      </c>
+      <c r="N407" t="n">
+        <v>317.13</v>
+      </c>
+      <c r="O407" t="n">
+        <v>314.9666666666667</v>
+      </c>
+      <c r="P407" t="n">
+        <v>292.06</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>286.8027272727272</v>
+      </c>
+      <c r="R407" t="n">
+        <v>304.4866666666667</v>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>372.25</v>
+      </c>
+      <c r="C408" t="n">
+        <v>358.6566666666667</v>
+      </c>
+      <c r="D408" t="n">
+        <v>354.7566666666667</v>
+      </c>
+      <c r="E408" t="n">
+        <v>353.34</v>
+      </c>
+      <c r="F408" t="n">
+        <v>350.58</v>
+      </c>
+      <c r="G408" t="n">
+        <v>362.3632258064516</v>
+      </c>
+      <c r="H408" t="n">
+        <v>360.967037037037</v>
+      </c>
+      <c r="I408" t="n">
+        <v>355.867037037037</v>
+      </c>
+      <c r="J408" t="n">
+        <v>345.88</v>
+      </c>
+      <c r="K408" t="n">
+        <v>330.6966666666667</v>
+      </c>
+      <c r="L408" t="n">
+        <v>328.7455555555555</v>
+      </c>
+      <c r="M408" t="n">
+        <v>338.72</v>
+      </c>
+      <c r="N408" t="n">
+        <v>338.25</v>
+      </c>
+      <c r="O408" t="n">
+        <v>336.8233333333333</v>
+      </c>
+      <c r="P408" t="n">
+        <v>316.18</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>287.8254545454545</v>
+      </c>
+      <c r="R408" t="n">
+        <v>308.9833333333333</v>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>349.53</v>
+      </c>
+      <c r="C409" t="n">
+        <v>349.9266666666667</v>
+      </c>
+      <c r="D409" t="n">
+        <v>338.9966666666667</v>
+      </c>
+      <c r="E409" t="n">
+        <v>331.55</v>
+      </c>
+      <c r="F409" t="n">
+        <v>336.22</v>
+      </c>
+      <c r="G409" t="n">
+        <v>347.7635483870968</v>
+      </c>
+      <c r="H409" t="n">
+        <v>351.1659259259259</v>
+      </c>
+      <c r="I409" t="n">
+        <v>346.4359259259259</v>
+      </c>
+      <c r="J409" t="n">
+        <v>342.15</v>
+      </c>
+      <c r="K409" t="n">
+        <v>330.4566666666666</v>
+      </c>
+      <c r="L409" t="n">
+        <v>331.6688888888889</v>
+      </c>
+      <c r="M409" t="n">
+        <v>332.58</v>
+      </c>
+      <c r="N409" t="n">
+        <v>342.7</v>
+      </c>
+      <c r="O409" t="n">
+        <v>346.4133333333333</v>
+      </c>
+      <c r="P409" t="n">
+        <v>334.02</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>329.4890909090909</v>
+      </c>
+      <c r="R409" t="n">
+        <v>330.1233333333333</v>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>350.97</v>
+      </c>
+      <c r="C410" t="n">
+        <v>342.74</v>
+      </c>
+      <c r="D410" t="n">
+        <v>346.26</v>
+      </c>
+      <c r="E410" t="n">
+        <v>330.89</v>
+      </c>
+      <c r="F410" t="n">
+        <v>337.0371428571428</v>
+      </c>
+      <c r="G410" t="n">
+        <v>343.7177419354838</v>
+      </c>
+      <c r="H410" t="n">
+        <v>345.5311111111111</v>
+      </c>
+      <c r="I410" t="n">
+        <v>348.0611111111111</v>
+      </c>
+      <c r="J410" t="n">
+        <v>334.4414285714286</v>
+      </c>
+      <c r="K410" t="n">
+        <v>331.19</v>
+      </c>
+      <c r="L410" t="n">
+        <v>327.5566666666667</v>
+      </c>
+      <c r="M410" t="n">
+        <v>331.955</v>
+      </c>
+      <c r="N410" t="n">
+        <v>347.27</v>
+      </c>
+      <c r="O410" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="P410" t="n">
+        <v>330.3828571428572</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>322.5472727272727</v>
+      </c>
+      <c r="R410" t="n">
+        <v>329.35</v>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>350.08</v>
+      </c>
+      <c r="C411" t="n">
+        <v>345.1733333333333</v>
+      </c>
+      <c r="D411" t="n">
+        <v>335.6333333333333</v>
+      </c>
+      <c r="E411" t="n">
+        <v>337.45</v>
+      </c>
+      <c r="F411" t="n">
+        <v>339.05</v>
+      </c>
+      <c r="G411" t="n">
+        <v>355.181935483871</v>
+      </c>
+      <c r="H411" t="n">
+        <v>358.1874074074074</v>
+      </c>
+      <c r="I411" t="n">
+        <v>356.2074074074074</v>
+      </c>
+      <c r="J411" t="n">
+        <v>353.53</v>
+      </c>
+      <c r="K411" t="n">
+        <v>342.1833333333333</v>
+      </c>
+      <c r="L411" t="n">
+        <v>342.5511111111111</v>
+      </c>
+      <c r="M411" t="n">
+        <v>349.505</v>
+      </c>
+      <c r="N411" t="n">
+        <v>353.88</v>
+      </c>
+      <c r="O411" t="n">
+        <v>355.9366666666667</v>
+      </c>
+      <c r="P411" t="n">
+        <v>348.98</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>341.8463636363636</v>
+      </c>
+      <c r="R411" t="n">
+        <v>340.0066666666667</v>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22913,7 +23346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27081,6 +27514,76 @@
       </c>
       <c r="B416" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>-0.28</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>-0.35</v>
       </c>
     </row>
   </sheetData>
@@ -27254,28 +27757,28 @@
         <v>0.0684</v>
       </c>
       <c r="I2" t="n">
-        <v>4.946240513276502</v>
+        <v>4.759922174497992</v>
       </c>
       <c r="J2" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K2" t="n">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6252087518172638</v>
+        <v>0.6006770285580731</v>
       </c>
       <c r="M2" t="n">
-        <v>23.9596451224118</v>
+        <v>24.54696588488953</v>
       </c>
       <c r="N2" t="n">
-        <v>826.7680517921787</v>
+        <v>865.108443620146</v>
       </c>
       <c r="O2" t="n">
-        <v>28.75357459155607</v>
+        <v>29.41272587877815</v>
       </c>
       <c r="P2" t="n">
-        <v>284.3854688659715</v>
+        <v>286.2284872593611</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27332,28 +27835,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>5.098950156137057</v>
+        <v>4.902164040513432</v>
       </c>
       <c r="J3" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K3" t="n">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6541183177723442</v>
+        <v>0.6280172113868079</v>
       </c>
       <c r="M3" t="n">
-        <v>23.12609413764259</v>
+        <v>23.74104463798078</v>
       </c>
       <c r="N3" t="n">
-        <v>765.4694111747679</v>
+        <v>808.3762649076887</v>
       </c>
       <c r="O3" t="n">
-        <v>27.66711786895715</v>
+        <v>28.43195851339982</v>
       </c>
       <c r="P3" t="n">
-        <v>275.2214852946155</v>
+        <v>277.1676621460999</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27410,28 +27913,28 @@
         <v>0.1315</v>
       </c>
       <c r="I4" t="n">
-        <v>4.802781128143986</v>
+        <v>4.603425145376666</v>
       </c>
       <c r="J4" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K4" t="n">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6603192324098529</v>
+        <v>0.6301542496791788</v>
       </c>
       <c r="M4" t="n">
-        <v>21.58704823124724</v>
+        <v>22.22853995515037</v>
       </c>
       <c r="N4" t="n">
-        <v>662.7274926682783</v>
+        <v>708.8173767967174</v>
       </c>
       <c r="O4" t="n">
-        <v>25.74349418140976</v>
+        <v>26.62362441135161</v>
       </c>
       <c r="P4" t="n">
-        <v>277.6349825432519</v>
+        <v>279.5954768176637</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27488,28 +27991,28 @@
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.813044800047783</v>
+        <v>4.599246178480162</v>
       </c>
       <c r="J5" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K5" t="n">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6739433562682011</v>
+        <v>0.6393877718713463</v>
       </c>
       <c r="M5" t="n">
-        <v>21.3002848168073</v>
+        <v>21.98738033821129</v>
       </c>
       <c r="N5" t="n">
-        <v>636.6363690146258</v>
+        <v>691.9891676723843</v>
       </c>
       <c r="O5" t="n">
-        <v>25.23165410777949</v>
+        <v>26.30568698347155</v>
       </c>
       <c r="P5" t="n">
-        <v>278.068629228813</v>
+        <v>280.1334977401256</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -27566,28 +28069,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>5.027951459228571</v>
+        <v>4.778221903836767</v>
       </c>
       <c r="J6" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K6" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7003215156946021</v>
+        <v>0.6611232671315501</v>
       </c>
       <c r="M6" t="n">
-        <v>21.15147526454421</v>
+        <v>22.01974103687051</v>
       </c>
       <c r="N6" t="n">
-        <v>629.6936290552371</v>
+        <v>697.2856019508502</v>
       </c>
       <c r="O6" t="n">
-        <v>25.09369699855398</v>
+        <v>26.40616598355108</v>
       </c>
       <c r="P6" t="n">
-        <v>276.6464141403701</v>
+        <v>279.0265087537578</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -27644,28 +28147,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.735593640431097</v>
+        <v>4.513660309392225</v>
       </c>
       <c r="J7" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K7" t="n">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7023046444792846</v>
+        <v>0.6676671699143359</v>
       </c>
       <c r="M7" t="n">
-        <v>19.97445204944099</v>
+        <v>20.69604138804571</v>
       </c>
       <c r="N7" t="n">
-        <v>555.6821890305196</v>
+        <v>607.1825753557151</v>
       </c>
       <c r="O7" t="n">
-        <v>23.57291218815612</v>
+        <v>24.64107496347745</v>
       </c>
       <c r="P7" t="n">
-        <v>286.8732417895121</v>
+        <v>288.9708015487947</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -27722,28 +28225,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.939297745870753</v>
+        <v>4.705951046868256</v>
       </c>
       <c r="J8" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K8" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7153557342628144</v>
+        <v>0.6791241281365601</v>
       </c>
       <c r="M8" t="n">
-        <v>20.04105686500445</v>
+        <v>20.83309891170564</v>
       </c>
       <c r="N8" t="n">
-        <v>564.733031810085</v>
+        <v>623.1950439939103</v>
       </c>
       <c r="O8" t="n">
-        <v>23.76411226640046</v>
+        <v>24.96387477924672</v>
       </c>
       <c r="P8" t="n">
-        <v>283.4747579913436</v>
+        <v>285.6934729878662</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -27800,28 +28303,28 @@
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.110771318793137</v>
+        <v>4.852209644029758</v>
       </c>
       <c r="J9" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K9" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7258549173777684</v>
+        <v>0.6843194393539359</v>
       </c>
       <c r="M9" t="n">
-        <v>20.14782415067144</v>
+        <v>21.10039620607212</v>
       </c>
       <c r="N9" t="n">
-        <v>567.3662762615342</v>
+        <v>639.74707199688</v>
       </c>
       <c r="O9" t="n">
-        <v>23.81945163645742</v>
+        <v>25.29322185876841</v>
       </c>
       <c r="P9" t="n">
-        <v>277.9969077600732</v>
+        <v>280.4833467752654</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -27878,28 +28381,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>5.141508542710632</v>
+        <v>4.864536383227727</v>
       </c>
       <c r="J10" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K10" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6974239044396291</v>
+        <v>0.6535536489265423</v>
       </c>
       <c r="M10" t="n">
-        <v>21.42007649654812</v>
+        <v>22.45409758513707</v>
       </c>
       <c r="N10" t="n">
-        <v>639.7947017564659</v>
+        <v>717.1055532260905</v>
       </c>
       <c r="O10" t="n">
-        <v>25.2941633930926</v>
+        <v>26.77882658418943</v>
       </c>
       <c r="P10" t="n">
-        <v>270.7836315099854</v>
+        <v>273.5196090122161</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -27956,28 +28459,28 @@
         <v>0.1429</v>
       </c>
       <c r="I11" t="n">
-        <v>4.682932220747326</v>
+        <v>4.427345729909408</v>
       </c>
       <c r="J11" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K11" t="n">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7007977336752734</v>
+        <v>0.6559655104006221</v>
       </c>
       <c r="M11" t="n">
-        <v>19.54974958281665</v>
+        <v>20.34479869966282</v>
       </c>
       <c r="N11" t="n">
-        <v>541.3091901744585</v>
+        <v>609.4683567358124</v>
       </c>
       <c r="O11" t="n">
-        <v>23.26605231177946</v>
+        <v>24.68741292107807</v>
       </c>
       <c r="P11" t="n">
-        <v>267.7899579282138</v>
+        <v>270.2265982481937</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28034,28 +28537,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.67091661707233</v>
+        <v>4.430151276867319</v>
       </c>
       <c r="J12" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K12" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6972370733831325</v>
+        <v>0.6552478085302036</v>
       </c>
       <c r="M12" t="n">
-        <v>19.503614540095</v>
+        <v>20.35216199475654</v>
       </c>
       <c r="N12" t="n">
-        <v>536.6650340316611</v>
+        <v>598.6059475788719</v>
       </c>
       <c r="O12" t="n">
-        <v>23.16603190085996</v>
+        <v>24.46642490391418</v>
       </c>
       <c r="P12" t="n">
-        <v>264.7178046091616</v>
+        <v>267.0773010340472</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28112,28 +28615,28 @@
         <v>0.1541</v>
       </c>
       <c r="I13" t="n">
-        <v>4.608437151363428</v>
+        <v>4.367232355820203</v>
       </c>
       <c r="J13" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K13" t="n">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6932881285647561</v>
+        <v>0.6493609224277557</v>
       </c>
       <c r="M13" t="n">
-        <v>19.20132867679989</v>
+        <v>20.08403361515079</v>
       </c>
       <c r="N13" t="n">
-        <v>523.4101614990067</v>
+        <v>587.4969584314777</v>
       </c>
       <c r="O13" t="n">
-        <v>22.87815904960464</v>
+        <v>24.23833654423252</v>
       </c>
       <c r="P13" t="n">
-        <v>270.0082554251287</v>
+        <v>272.3791317078441</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28190,28 +28693,28 @@
         <v>0.0698</v>
       </c>
       <c r="I14" t="n">
-        <v>4.708704700871211</v>
+        <v>4.428852473310409</v>
       </c>
       <c r="J14" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K14" t="n">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7018119901785616</v>
+        <v>0.6438501699040271</v>
       </c>
       <c r="M14" t="n">
-        <v>18.104902321078</v>
+        <v>19.10509523880619</v>
       </c>
       <c r="N14" t="n">
-        <v>493.5956745016802</v>
+        <v>581.9425919769384</v>
       </c>
       <c r="O14" t="n">
-        <v>22.21701317688046</v>
+        <v>24.12348631472944</v>
       </c>
       <c r="P14" t="n">
-        <v>272.4964556405575</v>
+        <v>275.403215361293</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28268,28 +28771,28 @@
         <v>0.0877</v>
       </c>
       <c r="I15" t="n">
-        <v>3.570839151600329</v>
+        <v>3.339925903000476</v>
       </c>
       <c r="J15" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K15" t="n">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6244973346983532</v>
+        <v>0.565462688101128</v>
       </c>
       <c r="M15" t="n">
-        <v>16.74235374616697</v>
+        <v>17.53047322174744</v>
       </c>
       <c r="N15" t="n">
-        <v>416.4659185322027</v>
+        <v>476.8112226803083</v>
       </c>
       <c r="O15" t="n">
-        <v>20.40749662580403</v>
+        <v>21.83600748031353</v>
       </c>
       <c r="P15" t="n">
-        <v>295.3211563873811</v>
+        <v>297.6394819223725</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28346,28 +28849,28 @@
         <v>0.0936</v>
       </c>
       <c r="I16" t="n">
-        <v>3.301476634846946</v>
+        <v>3.055991647515461</v>
       </c>
       <c r="J16" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K16" t="n">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="L16" t="n">
-        <v>0.550089366294865</v>
+        <v>0.4835563819021212</v>
       </c>
       <c r="M16" t="n">
-        <v>17.44430629452218</v>
+        <v>18.26843813583179</v>
       </c>
       <c r="N16" t="n">
-        <v>479.8052920224773</v>
+        <v>549.8894112706256</v>
       </c>
       <c r="O16" t="n">
-        <v>21.90445826818087</v>
+        <v>23.44972092095395</v>
       </c>
       <c r="P16" t="n">
-        <v>290.1071209900094</v>
+        <v>292.582861050509</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28424,28 +28927,28 @@
         <v>0.076</v>
       </c>
       <c r="I17" t="n">
-        <v>3.187006912035027</v>
+        <v>2.930532938809656</v>
       </c>
       <c r="J17" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K17" t="n">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5234805989471198</v>
+        <v>0.4518746530723473</v>
       </c>
       <c r="M17" t="n">
-        <v>17.73207857246675</v>
+        <v>18.69998403024011</v>
       </c>
       <c r="N17" t="n">
-        <v>501.1299310933335</v>
+        <v>578.8589297522643</v>
       </c>
       <c r="O17" t="n">
-        <v>22.38593154401517</v>
+        <v>24.05948731274763</v>
       </c>
       <c r="P17" t="n">
-        <v>283.9142066432587</v>
+        <v>286.4743905931859</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -28502,28 +29005,28 @@
         <v>0.0891</v>
       </c>
       <c r="I18" t="n">
-        <v>2.609712893455489</v>
+        <v>2.423151567027101</v>
       </c>
       <c r="J18" t="n">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="K18" t="n">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4513088420905709</v>
+        <v>0.4011981437371266</v>
       </c>
       <c r="M18" t="n">
-        <v>16.22380144682996</v>
+        <v>16.79492538391756</v>
       </c>
       <c r="N18" t="n">
-        <v>443.7442654333457</v>
+        <v>480.6828153198061</v>
       </c>
       <c r="O18" t="n">
-        <v>21.06523831893069</v>
+        <v>21.92447981868227</v>
       </c>
       <c r="P18" t="n">
-        <v>295.0471190898577</v>
+        <v>296.9426260474862</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -28561,7 +29064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S404"/>
+  <dimension ref="A1:S411"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61717,6 +62220,669 @@
         </is>
       </c>
     </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-46.29911894675138,169.92354329553024</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-46.29926932179299,169.9226604867021</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-46.29950660405881,169.92183075256784</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-46.29975161518987,169.9210057392693</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-46.29994788537854,169.92015096319344</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>-46.30028093372728,169.91938266249886</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>-46.30051177250063,169.91855232837833</t>
+        </is>
+      </c>
+      <c r="I405" t="inlineStr">
+        <is>
+          <t>-46.30066316369597,169.91765811536743</t>
+        </is>
+      </c>
+      <c r="J405" t="inlineStr">
+        <is>
+          <t>-46.300900077865805,169.91682528702182</t>
+        </is>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>-46.3011189300758,169.9159874247195</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>-46.301378835855935,169.91518649105865</t>
+        </is>
+      </c>
+      <c r="M405" t="inlineStr">
+        <is>
+          <t>-46.301598877518174,169.91435196419852</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>-46.30178106962857,169.91346977586548</t>
+        </is>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>-46.30225939285824,169.91277021491715</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>-46.30248313056771,169.9118689465929</t>
+        </is>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>-46.30280890881614,169.91110374681784</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>-46.30331062178074,169.91051935327948</t>
+        </is>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:32+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-46.29909012448273,169.9235256939704</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-46.299290303581735,169.92267329989778</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-46.29945089173098,169.9217967306652</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-46.299752774716055,169.92100644734785</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-46.3000208174089,169.92019549928122</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-46.30035244785353,169.919428674815</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>-46.300591432673826,169.91860839813444</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>-46.30085950007576,169.9178017105335</t>
+        </is>
+      </c>
+      <c r="J406" t="inlineStr">
+        <is>
+          <t>-46.30108335495482,169.916959329023</t>
+        </is>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>-46.30122958923437,169.91606451437616</t>
+        </is>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>-46.30153967168488,169.9152892358305</t>
+        </is>
+      </c>
+      <c r="M406" t="inlineStr">
+        <is>
+          <t>-46.30176114477946,169.91445181984454</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr">
+        <is>
+          <t>-46.30189774453797,169.91354752896433</t>
+        </is>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>-46.302237104874635,169.9127508375035</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>-46.30251364470932,169.91190050120076</t>
+        </is>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>-46.302749706667576,169.9110427616795</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>-46.303280254845774,169.9104881920302</t>
+        </is>
+      </c>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:14:19+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr"/>
+      <c r="D407" t="inlineStr"/>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-46.30009805624598,169.92024266546386</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-46.300391469281884,169.91945378132493</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>-46.300607865257156,169.9186199644246</t>
+        </is>
+      </c>
+      <c r="I407" t="inlineStr">
+        <is>
+          <t>-46.3008390681222,169.9177867670981</t>
+        </is>
+      </c>
+      <c r="J407" t="inlineStr">
+        <is>
+          <t>-46.30106873221469,169.91694863446253</t>
+        </is>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>-46.30129918650535,169.91611299882837</t>
+        </is>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>-46.30150377100044,169.9152663017833</t>
+        </is>
+      </c>
+      <c r="M407" t="inlineStr">
+        <is>
+          <t>-46.30179795788695,169.91447447389413</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>-46.30197335050743,169.91359791357894</t>
+        </is>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>-46.30225710756974,169.91276822806182</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>-46.30247390948911,169.91185941110396</t>
+        </is>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>-46.30280960084961,169.91110445969426</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>-46.303311525703855,169.91052028084738</t>
+        </is>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-46.299189511605924,169.9235863890798</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-46.29933375796654,169.92269983673052</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-46.29955828565528,169.9218623130842</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>-46.29980337974859,169.9210373499467</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>-46.30003734661613,169.92020559289134</t>
+        </is>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>-46.300390250441936,169.9194529971189</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>-46.30065408844096,169.91865249926133</t>
+        </is>
+      </c>
+      <c r="I408" t="inlineStr">
+        <is>
+          <t>-46.30090692109724,169.91783639316543</t>
+        </is>
+      </c>
+      <c r="J408" t="inlineStr">
+        <is>
+          <t>-46.30112183705198,169.916987473512</t>
+        </is>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>-46.30129435411203,169.91610963237108</t>
+        </is>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>-46.30155070961403,169.91529628707812</t>
+        </is>
+      </c>
+      <c r="M408" t="inlineStr">
+        <is>
+          <t>-46.30189106607713,169.91453177095283</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr">
+        <is>
+          <t>-46.30214579083075,169.91371283018015</t>
+        </is>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>-46.3024254741908,169.91291460838926</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>-46.302650227245906,169.91204174143277</t>
+        </is>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>-46.302817086788465,169.9111121710986</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>-46.3033444822477,169.91055409949146</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-15 22:20:37+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-46.299001338628706,169.92347147318557</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>-46.29926145362188,169.92265568175617</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>-46.29942775648022,169.92178260265987</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-46.29962290775775,169.92092714273076</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>-46.29991841203098,169.92013296527085</t>
+        </is>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>-46.3002703298158,169.91937583993413</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>-46.3005748653716,169.91859673702814</t>
+        </is>
+      </c>
+      <c r="I409" t="inlineStr">
+        <is>
+          <t>-46.30083126612813,169.917781060912</t>
+        </is>
+      </c>
+      <c r="J409" t="inlineStr">
+        <is>
+          <t>-46.301091915445696,169.91696558986936</t>
+        </is>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>-46.301292410356034,169.91610827826554</t>
+        </is>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>-46.301574750003084,169.91531164456487</t>
+        </is>
+      </c>
+      <c r="M409" t="inlineStr">
+        <is>
+          <t>-46.30184027227414,169.9145005133604</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>-46.302182124124464,169.91373704328447</t>
+        </is>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>-46.302499347977204,169.91297883563146</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>-46.30278063788605,169.91217660009931</t>
+        </is>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>-46.30312204689548,169.9114263183442</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>-46.30349941941238,169.9107130902746</t>
+        </is>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:24+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-46.29901326508802,169.92347875656472</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-46.299201931591895,169.92261933280477</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-46.29948791365051,169.9218193388696</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>-46.29961744141788,169.92092380466173</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-46.29992517989744,169.92013709807196</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr">
+        <is>
+          <t>-46.30023709786499,169.91935445848964</t>
+        </is>
+      </c>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>-46.30052931875682,169.91856467850343</t>
+        </is>
+      </c>
+      <c r="I410" t="inlineStr">
+        <is>
+          <t>-46.300844303123405,169.9177905958499</t>
+        </is>
+      </c>
+      <c r="J410" t="inlineStr">
+        <is>
+          <t>-46.30103007821153,169.91692036430706</t>
+        </is>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>-46.30129834961043,169.9161124158106</t>
+        </is>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>-46.30154093264038,169.9152900413537</t>
+        </is>
+      </c>
+      <c r="M410" t="inlineStr">
+        <is>
+          <t>-46.30183510189476,169.91449733160536</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>-46.302219437187674,169.91376190935878</t>
+        </is>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>-46.30243838990902,169.91292583754034</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>-46.30275405033464,169.91214910564005</t>
+        </is>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>-46.30307123579235,169.9113739762245</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>-46.30349375157896,169.91070727413447</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:39+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>-46.29900589387364,169.9234742550314</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-46.29922208515604,169.922631640187</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>-46.299399900311116,169.92176559174743</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-46.29967177351943,169.92095698307347</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>-46.29994185109242,169.92014727835027</t>
+        </is>
+      </c>
+      <c r="G411" t="inlineStr">
+        <is>
+          <t>-46.30033126388195,169.91941504499678</t>
+        </is>
+      </c>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>-46.30063162050193,169.9186366848797</t>
+        </is>
+      </c>
+      <c r="I411" t="inlineStr">
+        <is>
+          <t>-46.300909651497236,169.91783839011842</t>
+        </is>
+      </c>
+      <c r="J411" t="inlineStr">
+        <is>
+          <t>-46.301183204409746,169.91703235558634</t>
+        </is>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>-46.30138738441715,169.91617444147698</t>
+        </is>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>-46.301664241271894,169.91536881352212</t>
+        </is>
+      </c>
+      <c r="M411" t="inlineStr">
+        <is>
+          <t>-46.3019802861184,169.91458667550748</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr">
+        <is>
+          <t>-46.30227340640188,169.91379787544557</t>
+        </is>
+      </c>
+      <c r="O411" t="inlineStr">
+        <is>
+          <t>-46.302572708183924,169.91304261655404</t>
+        </is>
+      </c>
+      <c r="P411" t="inlineStr">
+        <is>
+          <t>-46.302889995574844,169.91228968834844</t>
+        </is>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>-46.3032124967265,169.91151949386068</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>-46.303571855276786,169.91078742165308</t>
+        </is>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S411"/>
+  <dimension ref="A1:S415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23335,6 +23335,258 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>341.92</v>
+      </c>
+      <c r="C412" t="n">
+        <v>344.1666666666667</v>
+      </c>
+      <c r="D412" t="n">
+        <v>336.0666666666667</v>
+      </c>
+      <c r="E412" t="n">
+        <v>344.06</v>
+      </c>
+      <c r="F412" t="n">
+        <v>349.3157142857143</v>
+      </c>
+      <c r="G412" t="n">
+        <v>362.6032258064516</v>
+      </c>
+      <c r="H412" t="n">
+        <v>365.8381481481482</v>
+      </c>
+      <c r="I412" t="n">
+        <v>360.7881481481481</v>
+      </c>
+      <c r="J412" t="n">
+        <v>352.2971428571428</v>
+      </c>
+      <c r="K412" t="n">
+        <v>334.2866666666666</v>
+      </c>
+      <c r="L412" t="n">
+        <v>338.4422222222223</v>
+      </c>
+      <c r="M412" t="n">
+        <v>345.805</v>
+      </c>
+      <c r="N412" t="n">
+        <v>340.76</v>
+      </c>
+      <c r="O412" t="n">
+        <v>339.9233333333333</v>
+      </c>
+      <c r="P412" t="n">
+        <v>330.3442857142857</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>313.1463636363636</v>
+      </c>
+      <c r="R412" t="n">
+        <v>310.5233333333333</v>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>343.8</v>
+      </c>
+      <c r="C413" t="n">
+        <v>330.75</v>
+      </c>
+      <c r="D413" t="n">
+        <v>332.01</v>
+      </c>
+      <c r="E413" t="n">
+        <v>333.61</v>
+      </c>
+      <c r="F413" t="n">
+        <v>336.5757142857143</v>
+      </c>
+      <c r="G413" t="n">
+        <v>344.5638709677419</v>
+      </c>
+      <c r="H413" t="n">
+        <v>341.63</v>
+      </c>
+      <c r="I413" t="n">
+        <v>340.18</v>
+      </c>
+      <c r="J413" t="n">
+        <v>338.0871428571429</v>
+      </c>
+      <c r="K413" t="n">
+        <v>329.65</v>
+      </c>
+      <c r="L413" t="n">
+        <v>320.57</v>
+      </c>
+      <c r="M413" t="n">
+        <v>323.75</v>
+      </c>
+      <c r="N413" t="n">
+        <v>338.3</v>
+      </c>
+      <c r="O413" t="n">
+        <v>332.2</v>
+      </c>
+      <c r="P413" t="n">
+        <v>308.4042857142857</v>
+      </c>
+      <c r="Q413" t="n">
+        <v>299.0681818181818</v>
+      </c>
+      <c r="R413" t="n">
+        <v>300.24</v>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>347.42</v>
+      </c>
+      <c r="C414" t="n">
+        <v>351.5333333333333</v>
+      </c>
+      <c r="D414" t="n">
+        <v>344.7733333333334</v>
+      </c>
+      <c r="E414" t="n">
+        <v>348.52</v>
+      </c>
+      <c r="F414" t="n">
+        <v>350.5585714285714</v>
+      </c>
+      <c r="G414" t="n">
+        <v>365.163870967742</v>
+      </c>
+      <c r="H414" t="n">
+        <v>360.1285185185185</v>
+      </c>
+      <c r="I414" t="n">
+        <v>353.8985185185185</v>
+      </c>
+      <c r="J414" t="n">
+        <v>352.4357142857143</v>
+      </c>
+      <c r="K414" t="n">
+        <v>326.9433333333334</v>
+      </c>
+      <c r="L414" t="n">
+        <v>328.5677777777778</v>
+      </c>
+      <c r="M414" t="n">
+        <v>331.145</v>
+      </c>
+      <c r="N414" t="n">
+        <v>326.67</v>
+      </c>
+      <c r="O414" t="n">
+        <v>331.0966666666667</v>
+      </c>
+      <c r="P414" t="n">
+        <v>316.8914285714285</v>
+      </c>
+      <c r="Q414" t="n">
+        <v>298.1563636363636</v>
+      </c>
+      <c r="R414" t="n">
+        <v>306.2966666666667</v>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>347.37</v>
+      </c>
+      <c r="C415" t="n">
+        <v>340.73</v>
+      </c>
+      <c r="D415" t="n">
+        <v>339.22</v>
+      </c>
+      <c r="E415" t="n">
+        <v>338.81</v>
+      </c>
+      <c r="F415" t="n">
+        <v>340.28</v>
+      </c>
+      <c r="G415" t="n">
+        <v>351.9148387096774</v>
+      </c>
+      <c r="H415" t="n">
+        <v>352.0555555555555</v>
+      </c>
+      <c r="I415" t="n">
+        <v>343.1655555555556</v>
+      </c>
+      <c r="J415" t="n">
+        <v>336.59</v>
+      </c>
+      <c r="K415" t="n">
+        <v>320.09</v>
+      </c>
+      <c r="L415" t="n">
+        <v>315.2233333333333</v>
+      </c>
+      <c r="M415" t="n">
+        <v>321.365</v>
+      </c>
+      <c r="N415" t="n">
+        <v>327.73</v>
+      </c>
+      <c r="O415" t="n">
+        <v>320.11</v>
+      </c>
+      <c r="P415" t="n">
+        <v>303.67</v>
+      </c>
+      <c r="Q415" t="n">
+        <v>291.2781818181818</v>
+      </c>
+      <c r="R415" t="n">
+        <v>292.63</v>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23346,7 +23598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B423"/>
+  <dimension ref="A1:B427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27584,6 +27836,46 @@
       </c>
       <c r="B423" t="n">
         <v>-0.35</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>-1.01</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>0.21</v>
       </c>
     </row>
   </sheetData>
@@ -27757,28 +28049,28 @@
         <v>0.0684</v>
       </c>
       <c r="I2" t="n">
-        <v>4.759922174497992</v>
+        <v>4.615096432610076</v>
       </c>
       <c r="J2" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K2" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6006770285580731</v>
+        <v>0.577826887645464</v>
       </c>
       <c r="M2" t="n">
-        <v>24.54696588488953</v>
+        <v>25.06192676431949</v>
       </c>
       <c r="N2" t="n">
-        <v>865.108443620146</v>
+        <v>904.489956391796</v>
       </c>
       <c r="O2" t="n">
-        <v>29.41272587877815</v>
+        <v>30.0747395066324</v>
       </c>
       <c r="P2" t="n">
-        <v>286.2284872593611</v>
+        <v>287.6726472132347</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -27835,28 +28127,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.902164040513432</v>
+        <v>4.760390905395598</v>
       </c>
       <c r="J3" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K3" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6280172113868079</v>
+        <v>0.606504674731732</v>
       </c>
       <c r="M3" t="n">
-        <v>23.74104463798078</v>
+        <v>24.24629399369076</v>
       </c>
       <c r="N3" t="n">
-        <v>808.3762649076887</v>
+        <v>845.5461817305827</v>
       </c>
       <c r="O3" t="n">
-        <v>28.43195851339982</v>
+        <v>29.07827680125806</v>
       </c>
       <c r="P3" t="n">
-        <v>277.1676621460999</v>
+        <v>278.5808593323948</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -27913,28 +28205,28 @@
         <v>0.1315</v>
       </c>
       <c r="I4" t="n">
-        <v>4.603425145376666</v>
+        <v>4.464785198072596</v>
       </c>
       <c r="J4" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K4" t="n">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6301542496791788</v>
+        <v>0.6071754442139988</v>
       </c>
       <c r="M4" t="n">
-        <v>22.22853995515037</v>
+        <v>22.68389435709589</v>
       </c>
       <c r="N4" t="n">
-        <v>708.8173767967174</v>
+        <v>744.4766139429372</v>
       </c>
       <c r="O4" t="n">
-        <v>26.62362441135161</v>
+        <v>27.28509875266969</v>
       </c>
       <c r="P4" t="n">
-        <v>279.5954768176637</v>
+        <v>280.969565338671</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -27991,28 +28283,28 @@
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.599246178480162</v>
+        <v>4.466151432845408</v>
       </c>
       <c r="J5" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K5" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6393877718713463</v>
+        <v>0.6181106706333694</v>
       </c>
       <c r="M5" t="n">
-        <v>21.98738033821129</v>
+        <v>22.4075168507485</v>
       </c>
       <c r="N5" t="n">
-        <v>691.9891676723843</v>
+        <v>724.3260749508759</v>
       </c>
       <c r="O5" t="n">
-        <v>26.30568698347155</v>
+        <v>26.91330665211683</v>
       </c>
       <c r="P5" t="n">
-        <v>280.1334977401256</v>
+        <v>281.4290579313895</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28069,28 +28361,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.778221903836767</v>
+        <v>4.646052761610221</v>
       </c>
       <c r="J6" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K6" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6611232671315501</v>
+        <v>0.6405311184234814</v>
       </c>
       <c r="M6" t="n">
-        <v>22.01974103687051</v>
+        <v>22.4612006893142</v>
       </c>
       <c r="N6" t="n">
-        <v>697.2856019508502</v>
+        <v>730.8944046071296</v>
       </c>
       <c r="O6" t="n">
-        <v>26.40616598355108</v>
+        <v>27.03505880532035</v>
       </c>
       <c r="P6" t="n">
-        <v>279.0265087537578</v>
+        <v>280.2969078566207</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28147,28 +28439,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.513660309392225</v>
+        <v>4.400685324919285</v>
       </c>
       <c r="J7" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K7" t="n">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6676671699143359</v>
+        <v>0.6505990456601367</v>
       </c>
       <c r="M7" t="n">
-        <v>20.69604138804571</v>
+        <v>21.04028849454445</v>
       </c>
       <c r="N7" t="n">
-        <v>607.1825753557151</v>
+        <v>630.8055438038826</v>
       </c>
       <c r="O7" t="n">
-        <v>24.64107496347745</v>
+        <v>25.11584248644434</v>
       </c>
       <c r="P7" t="n">
-        <v>288.9708015487947</v>
+        <v>290.0476569916142</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28225,28 +28517,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.705951046868256</v>
+        <v>4.587559630049013</v>
       </c>
       <c r="J8" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K8" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6791241281365601</v>
+        <v>0.6613129286097017</v>
       </c>
       <c r="M8" t="n">
-        <v>20.83309891170564</v>
+        <v>21.20093407270132</v>
       </c>
       <c r="N8" t="n">
-        <v>623.1950439939103</v>
+        <v>650.1130272546751</v>
       </c>
       <c r="O8" t="n">
-        <v>24.96387477924672</v>
+        <v>25.4973141184454</v>
       </c>
       <c r="P8" t="n">
-        <v>285.6934729878662</v>
+        <v>286.8288832946427</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28303,28 +28595,28 @@
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.852209644029758</v>
+        <v>4.721119636697068</v>
       </c>
       <c r="J9" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6843194393539359</v>
+        <v>0.6641864111978508</v>
       </c>
       <c r="M9" t="n">
-        <v>21.10039620607212</v>
+        <v>21.5393068590265</v>
       </c>
       <c r="N9" t="n">
-        <v>639.74707199688</v>
+        <v>672.3696840553531</v>
       </c>
       <c r="O9" t="n">
-        <v>25.29322185876841</v>
+        <v>25.93009224926423</v>
       </c>
       <c r="P9" t="n">
-        <v>280.4833467752654</v>
+        <v>281.7549677082153</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28381,28 +28673,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.864536383227727</v>
+        <v>4.732056323225235</v>
       </c>
       <c r="J10" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K10" t="n">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6535536489265423</v>
+        <v>0.6345683772583175</v>
       </c>
       <c r="M10" t="n">
-        <v>22.45409758513707</v>
+        <v>22.89549501994648</v>
       </c>
       <c r="N10" t="n">
-        <v>717.1055532260905</v>
+        <v>746.8875457541113</v>
       </c>
       <c r="O10" t="n">
-        <v>26.77882658418943</v>
+        <v>27.32924341715503</v>
       </c>
       <c r="P10" t="n">
-        <v>273.5196090122161</v>
+        <v>274.8394788365775</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28459,28 +28751,28 @@
         <v>0.1429</v>
       </c>
       <c r="I11" t="n">
-        <v>4.427345729909408</v>
+        <v>4.29169302200028</v>
       </c>
       <c r="J11" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K11" t="n">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6559655104006221</v>
+        <v>0.6323799862618591</v>
       </c>
       <c r="M11" t="n">
-        <v>20.34479869966282</v>
+        <v>20.7637344368829</v>
       </c>
       <c r="N11" t="n">
-        <v>609.4683567358124</v>
+        <v>643.3537001469309</v>
       </c>
       <c r="O11" t="n">
-        <v>24.68741292107807</v>
+        <v>25.36441799345948</v>
       </c>
       <c r="P11" t="n">
-        <v>270.2265982481937</v>
+        <v>271.5311896550084</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28537,28 +28829,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.430151276867319</v>
+        <v>4.29982041385093</v>
       </c>
       <c r="J12" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K12" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6552478085302036</v>
+        <v>0.6322241842409103</v>
       </c>
       <c r="M12" t="n">
-        <v>20.35216199475654</v>
+        <v>20.78723686354338</v>
       </c>
       <c r="N12" t="n">
-        <v>598.6059475788719</v>
+        <v>631.2467113429188</v>
       </c>
       <c r="O12" t="n">
-        <v>24.46642490391418</v>
+        <v>25.12462360599495</v>
       </c>
       <c r="P12" t="n">
-        <v>267.0773010340472</v>
+        <v>268.3658638199683</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28615,28 +28907,28 @@
         <v>0.1541</v>
       </c>
       <c r="I13" t="n">
-        <v>4.367232355820203</v>
+        <v>4.241636422032061</v>
       </c>
       <c r="J13" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K13" t="n">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6493609224277557</v>
+        <v>0.6273151680435052</v>
       </c>
       <c r="M13" t="n">
-        <v>20.08403361515079</v>
+        <v>20.50506397087015</v>
       </c>
       <c r="N13" t="n">
-        <v>587.4969584314777</v>
+        <v>617.5806291564181</v>
       </c>
       <c r="O13" t="n">
-        <v>24.23833654423252</v>
+        <v>24.85116957320959</v>
       </c>
       <c r="P13" t="n">
-        <v>272.3791317078441</v>
+        <v>273.6242661800442</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -28693,28 +28985,28 @@
         <v>0.0698</v>
       </c>
       <c r="I14" t="n">
-        <v>4.428852473310409</v>
+        <v>4.29201571707195</v>
       </c>
       <c r="J14" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K14" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6438501699040271</v>
+        <v>0.6193337303695787</v>
       </c>
       <c r="M14" t="n">
-        <v>19.10509523880619</v>
+        <v>19.55972330702782</v>
       </c>
       <c r="N14" t="n">
-        <v>581.9425919769384</v>
+        <v>614.9751893743038</v>
       </c>
       <c r="O14" t="n">
-        <v>24.12348631472944</v>
+        <v>24.79869329973464</v>
       </c>
       <c r="P14" t="n">
-        <v>275.403215361293</v>
+        <v>276.8365516667159</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -28771,28 +29063,28 @@
         <v>0.0877</v>
       </c>
       <c r="I15" t="n">
-        <v>3.339925903000476</v>
+        <v>3.216366412783319</v>
       </c>
       <c r="J15" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K15" t="n">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L15" t="n">
-        <v>0.565462688101128</v>
+        <v>0.5354825890062128</v>
       </c>
       <c r="M15" t="n">
-        <v>17.53047322174744</v>
+        <v>17.92270288877377</v>
       </c>
       <c r="N15" t="n">
-        <v>476.8112226803083</v>
+        <v>505.5761086162874</v>
       </c>
       <c r="O15" t="n">
-        <v>21.83600748031353</v>
+        <v>22.48501964900826</v>
       </c>
       <c r="P15" t="n">
-        <v>297.6394819223725</v>
+        <v>298.890595594173</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -28849,28 +29141,28 @@
         <v>0.0936</v>
       </c>
       <c r="I16" t="n">
-        <v>3.055991647515461</v>
+        <v>2.923523513559093</v>
       </c>
       <c r="J16" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K16" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4835563819021212</v>
+        <v>0.4502116896066912</v>
       </c>
       <c r="M16" t="n">
-        <v>18.26843813583179</v>
+        <v>18.72908517979259</v>
       </c>
       <c r="N16" t="n">
-        <v>549.8894112706256</v>
+        <v>582.929205734458</v>
       </c>
       <c r="O16" t="n">
-        <v>23.44972092095395</v>
+        <v>24.14392689134181</v>
       </c>
       <c r="P16" t="n">
-        <v>292.582861050509</v>
+        <v>293.9302337095745</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -28927,28 +29219,28 @@
         <v>0.076</v>
       </c>
       <c r="I17" t="n">
-        <v>2.930532938809656</v>
+        <v>2.785164676343465</v>
       </c>
       <c r="J17" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K17" t="n">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4518746530723473</v>
+        <v>0.4140104072013174</v>
       </c>
       <c r="M17" t="n">
-        <v>18.69998403024011</v>
+        <v>19.28776887421553</v>
       </c>
       <c r="N17" t="n">
-        <v>578.8589297522643</v>
+        <v>618.3258634313673</v>
       </c>
       <c r="O17" t="n">
-        <v>24.05948731274763</v>
+        <v>24.86615900036367</v>
       </c>
       <c r="P17" t="n">
-        <v>286.4743905931859</v>
+        <v>287.9378236259652</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29005,28 +29297,28 @@
         <v>0.0891</v>
       </c>
       <c r="I18" t="n">
-        <v>2.423151567027101</v>
+        <v>2.291681306279583</v>
       </c>
       <c r="J18" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K18" t="n">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4011981437371266</v>
+        <v>0.3620619695715647</v>
       </c>
       <c r="M18" t="n">
-        <v>16.79492538391756</v>
+        <v>17.25621305193252</v>
       </c>
       <c r="N18" t="n">
-        <v>480.6828153198061</v>
+        <v>513.9524567769508</v>
       </c>
       <c r="O18" t="n">
-        <v>21.92447981868227</v>
+        <v>22.67051955242647</v>
       </c>
       <c r="P18" t="n">
-        <v>296.9426260474862</v>
+        <v>298.2897276155651</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -29064,7 +29356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S411"/>
+  <dimension ref="A1:S415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62883,6 +63175,394 @@
         </is>
       </c>
     </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-46.29893831059735,169.9234329826007</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-46.2992137476543,169.92262654863882</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-46.29940348931222,169.9217677834399</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-46.29972651972904,169.92099041443365</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-46.300026875357524,169.92019919858504</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-46.30039222178306,169.91945426548693</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>-46.30069346196511,169.9186802129156</t>
+        </is>
+      </c>
+      <c r="I412" t="inlineStr">
+        <is>
+          <t>-46.30094639750837,169.91786526534395</t>
+        </is>
+      </c>
+      <c r="J412" t="inlineStr">
+        <is>
+          <t>-46.30117331458266,169.91702512248355</t>
+        </is>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>-46.30132342946047,169.91612988754463</t>
+        </is>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>-46.3016304513308,169.91534722775415</t>
+        </is>
+      </c>
+      <c r="M412" t="inlineStr">
+        <is>
+          <t>-46.30194967748376,169.91456783943312</t>
+        </is>
+      </c>
+      <c r="N412" t="inlineStr">
+        <is>
+          <t>-46.302166284441924,169.9137264874554</t>
+        </is>
+      </c>
+      <c r="O412" t="inlineStr">
+        <is>
+          <t>-46.30244935414618,169.9129353700444</t>
+        </is>
+      </c>
+      <c r="P412" t="inlineStr">
+        <is>
+          <t>-46.30275376837707,169.912148814065</t>
+        </is>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>-46.30300242517352,169.91130309242487</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>-46.30335576906788,169.91056568157154</t>
+        </is>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:14:47+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-46.298953881255294,169.92344249143633</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-46.29910262695798,169.9225586895707</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-46.29936989073894,169.92174726583767</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-46.29963996936344,169.92093756155649</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-46.29992135818266,169.92013476433974</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-46.300244047905714,169.9193589301451</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>-46.300497785789496,169.91854248368418</t>
+        </is>
+      </c>
+      <c r="I413" t="inlineStr">
+        <is>
+          <t>-46.300781082008605,169.91774435752671</t>
+        </is>
+      </c>
+      <c r="J413" t="inlineStr">
+        <is>
+          <t>-46.30105932369566,169.91694175340422</t>
+        </is>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>-46.30128587717604,169.91610372696695</t>
+        </is>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>-46.30148347692378,169.91525333755112</t>
+        </is>
+      </c>
+      <c r="M413" t="inlineStr">
+        <is>
+          <t>-46.30176722514691,169.9144555615788</t>
+        </is>
+      </c>
+      <c r="N413" t="inlineStr">
+        <is>
+          <t>-46.30214619907004,169.91371310223735</t>
+        </is>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>-46.30238985967034,169.91288364453442</t>
+        </is>
+      </c>
+      <c r="P413" t="inlineStr">
+        <is>
+          <t>-46.30259338662414,169.91198296234512</t>
+        </is>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>-46.30289937885085,169.91119694184718</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>-46.30328040142795,169.91048834244643</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-09 22:21:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-46.298983863052165,169.92346080101748</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-46.29927476049362,169.92266380801638</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-46.2994756006188,169.9218118196574</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-46.29976345892159,169.9210129717872</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-46.30003716913718,169.92020548451325</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-46.30041325472038,169.91946779816107</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>-46.30064731063782,169.91864772860578</t>
+        </is>
+      </c>
+      <c r="I414" t="inlineStr">
+        <is>
+          <t>-46.300891129936744,169.91782484387076</t>
+        </is>
+      </c>
+      <c r="J414" t="inlineStr">
+        <is>
+          <t>-46.30117442618549,169.9170259354741</t>
+        </is>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>-46.30126395592633,169.9160884556753</t>
+        </is>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>-46.30154924763668,169.91529535313788</t>
+        </is>
+      </c>
+      <c r="M414" t="inlineStr">
+        <is>
+          <t>-46.30182840108296,169.91449320805168</t>
+        </is>
+      </c>
+      <c r="N414" t="inlineStr">
+        <is>
+          <t>-46.30205124259797,169.91364982184328</t>
+        </is>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>-46.30238136045778,169.9128762551848</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>-46.30265542780114,169.91204711935274</t>
+        </is>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>-46.302892704725195,169.91119006668129</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>-46.3033247913857,169.91053389353618</t>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:14:49+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-46.29898344893897,169.9234605481226</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-46.299185284194834,169.92260916657645</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-46.299429606196036,169.9217837322255</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-46.29968303749063,169.92096386153264</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>-46.29995203838717,169.92015349923298</t>
+        </is>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>-46.30030442819953,169.91939777887018</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>-46.30058205631136,169.91860179846157</t>
+        </is>
+      </c>
+      <c r="I415" t="inlineStr">
+        <is>
+          <t>-46.30080503169835,169.91776187370994</t>
+        </is>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>-46.30104731379508,169.9169329697911</t>
+        </is>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>-46.30120845088196,169.91604978851697</t>
+        </is>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>-46.30143950794278,169.91522524938608</t>
+        </is>
+      </c>
+      <c r="M415" t="inlineStr">
+        <is>
+          <t>-46.30174749497455,169.91444342003587</t>
+        </is>
+      </c>
+      <c r="N415" t="inlineStr">
+        <is>
+          <t>-46.3020598972734,169.91365558943704</t>
+        </is>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>-46.30229672779186,169.91280267435204</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>-46.30255877889043,169.91194717443855</t>
+        </is>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>-46.30284235931444,169.91113820481516</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>-46.30322462690046,169.91043110912207</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S415"/>
+  <dimension ref="A1:S416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23587,6 +23587,69 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>337.99</v>
+      </c>
+      <c r="C416" t="n">
+        <v>334.5533333333333</v>
+      </c>
+      <c r="D416" t="n">
+        <v>330.2133333333334</v>
+      </c>
+      <c r="E416" t="n">
+        <v>335.18</v>
+      </c>
+      <c r="F416" t="n">
+        <v>339.2685714285714</v>
+      </c>
+      <c r="G416" t="n">
+        <v>348.9332258064516</v>
+      </c>
+      <c r="H416" t="n">
+        <v>347.8407407407408</v>
+      </c>
+      <c r="I416" t="n">
+        <v>338.7807407407408</v>
+      </c>
+      <c r="J416" t="n">
+        <v>332.3557142857143</v>
+      </c>
+      <c r="K416" t="n">
+        <v>312.4233333333333</v>
+      </c>
+      <c r="L416" t="n">
+        <v>312.5611111111111</v>
+      </c>
+      <c r="M416" t="n">
+        <v>323.235</v>
+      </c>
+      <c r="N416" t="n">
+        <v>324.33</v>
+      </c>
+      <c r="O416" t="n">
+        <v>323.2866666666667</v>
+      </c>
+      <c r="P416" t="n">
+        <v>305.5314285714285</v>
+      </c>
+      <c r="Q416" t="n">
+        <v>290.8290909090909</v>
+      </c>
+      <c r="R416" t="n">
+        <v>295.6566666666667</v>
+      </c>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23598,7 +23661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B427"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27876,6 +27939,16 @@
       </c>
       <c r="B427" t="n">
         <v>0.21</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>-0.17</v>
       </c>
     </row>
   </sheetData>
@@ -29356,7 +29429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S415"/>
+  <dimension ref="A1:S416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63563,6 +63636,103 @@
         </is>
       </c>
     </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-46.298905761294165,169.9234131051048</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-46.29913412726332,169.92257792611434</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-46.299355010186524,169.9217381787562</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-46.29965297262549,169.92094550212198</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-46.29994366137826,169.9201483838031</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-46.30027993745775,169.91938202149817</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>-46.300547987660764,169.9185778188258</t>
+        </is>
+      </c>
+      <c r="I416" t="inlineStr">
+        <is>
+          <t>-46.30076985735478,169.91773614811112</t>
+        </is>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>-46.30101334685929,169.91690812760788</t>
+        </is>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>-46.301146358649305,169.91600653254474</t>
+        </is>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>-46.30141761482362,169.9152112636909</t>
+        </is>
+      </c>
+      <c r="M416" t="inlineStr">
+        <is>
+          <t>-46.3017629647534,169.9144529398193</t>
+        </is>
+      </c>
+      <c r="N416" t="inlineStr">
+        <is>
+          <t>-46.30203213699277,169.91363708961427</t>
+        </is>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>-46.3023211983456,169.9128239493697</t>
+        </is>
+      </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>-46.30257238597586,169.91196124553832</t>
+        </is>
+      </c>
+      <c r="Q416" t="inlineStr">
+        <is>
+          <t>-46.30283907215628,169.91113481864846</t>
+        </is>
+      </c>
+      <c r="R416" t="inlineStr">
+        <is>
+          <t>-46.30324680967669,169.91045387207743</t>
+        </is>
+      </c>
+      <c r="S416" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -28122,28 +28122,28 @@
         <v>0.0684</v>
       </c>
       <c r="I2" t="n">
-        <v>4.615096432610076</v>
+        <v>4.57596421126519</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K2" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.577826887645464</v>
+        <v>0.5711106898777405</v>
       </c>
       <c r="M2" t="n">
-        <v>25.06192676431949</v>
+        <v>25.20665575760711</v>
       </c>
       <c r="N2" t="n">
-        <v>904.489956391796</v>
+        <v>916.6599501987097</v>
       </c>
       <c r="O2" t="n">
-        <v>30.0747395066324</v>
+        <v>30.27639262195398</v>
       </c>
       <c r="P2" t="n">
-        <v>287.6726472132347</v>
+        <v>288.0648139104597</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -28200,28 +28200,28 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.760390905395598</v>
+        <v>4.721907567274238</v>
       </c>
       <c r="J3" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.606504674731732</v>
+        <v>0.6001446308931444</v>
       </c>
       <c r="M3" t="n">
-        <v>24.24629399369076</v>
+        <v>24.39161820488236</v>
       </c>
       <c r="N3" t="n">
-        <v>845.5461817305827</v>
+        <v>856.9787245722125</v>
       </c>
       <c r="O3" t="n">
-        <v>29.07827680125806</v>
+        <v>29.27419895696913</v>
       </c>
       <c r="P3" t="n">
-        <v>278.5808593323948</v>
+        <v>278.9663081473748</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -28278,28 +28278,28 @@
         <v>0.1315</v>
       </c>
       <c r="I4" t="n">
-        <v>4.464785198072596</v>
+        <v>4.426753764564126</v>
       </c>
       <c r="J4" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6071754442139988</v>
+        <v>0.6002218907803012</v>
       </c>
       <c r="M4" t="n">
-        <v>22.68389435709589</v>
+        <v>22.82331953282187</v>
       </c>
       <c r="N4" t="n">
-        <v>744.4766139429372</v>
+        <v>755.8062468534366</v>
       </c>
       <c r="O4" t="n">
-        <v>27.28509875266969</v>
+        <v>27.49193057705182</v>
       </c>
       <c r="P4" t="n">
-        <v>280.969565338671</v>
+        <v>281.3483200624505</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -28356,28 +28356,28 @@
         <v>0.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4.466151432845408</v>
+        <v>4.430444865340923</v>
       </c>
       <c r="J5" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K5" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6181106706333694</v>
+        <v>0.6119156692437838</v>
       </c>
       <c r="M5" t="n">
-        <v>22.4075168507485</v>
+        <v>22.53035160111331</v>
       </c>
       <c r="N5" t="n">
-        <v>724.3260749508759</v>
+        <v>734.06493182827</v>
       </c>
       <c r="O5" t="n">
-        <v>26.91330665211683</v>
+        <v>27.09363268054452</v>
       </c>
       <c r="P5" t="n">
-        <v>281.4290579313895</v>
+        <v>281.7782991665867</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -28434,28 +28434,28 @@
         <v>0.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4.646052761610221</v>
+        <v>4.61125175661399</v>
       </c>
       <c r="J6" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K6" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6405311184234814</v>
+        <v>0.6347392447671869</v>
       </c>
       <c r="M6" t="n">
-        <v>22.4612006893142</v>
+        <v>22.58003757247896</v>
       </c>
       <c r="N6" t="n">
-        <v>730.8944046071296</v>
+        <v>740.5368194761194</v>
       </c>
       <c r="O6" t="n">
-        <v>27.03505880532035</v>
+        <v>27.21280616687885</v>
       </c>
       <c r="P6" t="n">
-        <v>280.2969078566207</v>
+        <v>280.6330847359627</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -28512,28 +28512,28 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.400685324919285</v>
+        <v>4.369282951020694</v>
       </c>
       <c r="J7" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K7" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6505990456601367</v>
+        <v>0.6452977228554104</v>
       </c>
       <c r="M7" t="n">
-        <v>21.04028849454445</v>
+        <v>21.14355566516223</v>
       </c>
       <c r="N7" t="n">
-        <v>630.8055438038826</v>
+        <v>638.4696279744667</v>
       </c>
       <c r="O7" t="n">
-        <v>25.11584248644434</v>
+        <v>25.2679565452861</v>
       </c>
       <c r="P7" t="n">
-        <v>290.0476569916142</v>
+        <v>290.3484661110518</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -28590,28 +28590,28 @@
         <v>0.2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.587559630049013</v>
+        <v>4.554894479273543</v>
       </c>
       <c r="J8" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K8" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6613129286097017</v>
+        <v>0.6558784815726924</v>
       </c>
       <c r="M8" t="n">
-        <v>21.20093407270132</v>
+        <v>21.30913581393584</v>
       </c>
       <c r="N8" t="n">
-        <v>650.1130272546751</v>
+        <v>658.6071656660804</v>
       </c>
       <c r="O8" t="n">
-        <v>25.4973141184454</v>
+        <v>25.66334283888364</v>
       </c>
       <c r="P8" t="n">
-        <v>286.8288832946427</v>
+        <v>287.1436987678129</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -28668,28 +28668,28 @@
         <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.721119636697068</v>
+        <v>4.683214572171439</v>
       </c>
       <c r="J9" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K9" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6641864111978508</v>
+        <v>0.6574550791513845</v>
       </c>
       <c r="M9" t="n">
-        <v>21.5393068590265</v>
+        <v>21.68277163071443</v>
       </c>
       <c r="N9" t="n">
-        <v>672.3696840553531</v>
+        <v>683.9343274155415</v>
       </c>
       <c r="O9" t="n">
-        <v>25.93009224926423</v>
+        <v>26.15213810409278</v>
       </c>
       <c r="P9" t="n">
-        <v>281.7549677082153</v>
+        <v>282.124455783256</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -28746,28 +28746,28 @@
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.732056323225235</v>
+        <v>4.69250176032848</v>
       </c>
       <c r="J10" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K10" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6345683772583175</v>
+        <v>0.627804786717814</v>
       </c>
       <c r="M10" t="n">
-        <v>22.89549501994648</v>
+        <v>23.03975480050471</v>
       </c>
       <c r="N10" t="n">
-        <v>746.8875457541113</v>
+        <v>758.5317732300775</v>
       </c>
       <c r="O10" t="n">
-        <v>27.32924341715503</v>
+        <v>27.54145553942416</v>
       </c>
       <c r="P10" t="n">
-        <v>274.8394788365775</v>
+        <v>275.2354448501791</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -28824,28 +28824,28 @@
         <v>0.1429</v>
       </c>
       <c r="I11" t="n">
-        <v>4.29169302200028</v>
+        <v>4.249909739732192</v>
       </c>
       <c r="J11" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K11" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6323799862618591</v>
+        <v>0.6235127468347068</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7637344368829</v>
+        <v>20.90508929390776</v>
       </c>
       <c r="N11" t="n">
-        <v>643.3537001469309</v>
+        <v>657.4481304252901</v>
       </c>
       <c r="O11" t="n">
-        <v>25.36441799345948</v>
+        <v>25.64075136233901</v>
       </c>
       <c r="P11" t="n">
-        <v>271.5311896550084</v>
+        <v>271.9349814066289</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -28902,28 +28902,28 @@
         <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.29982041385093</v>
+        <v>4.260695976735807</v>
       </c>
       <c r="J12" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K12" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6322241842409103</v>
+        <v>0.6240740866463568</v>
       </c>
       <c r="M12" t="n">
-        <v>20.78723686354338</v>
+        <v>20.92768827655062</v>
       </c>
       <c r="N12" t="n">
-        <v>631.2467113429188</v>
+        <v>643.7749487795974</v>
       </c>
       <c r="O12" t="n">
-        <v>25.12462360599495</v>
+        <v>25.3727205632269</v>
       </c>
       <c r="P12" t="n">
-        <v>268.3658638199683</v>
+        <v>268.7545496176236</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -28980,28 +28980,28 @@
         <v>0.1541</v>
       </c>
       <c r="I13" t="n">
-        <v>4.241636422032061</v>
+        <v>4.207061997790294</v>
       </c>
       <c r="J13" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K13" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6273151680435052</v>
+        <v>0.6206816215335003</v>
       </c>
       <c r="M13" t="n">
-        <v>20.50506397087015</v>
+        <v>20.62517635982385</v>
       </c>
       <c r="N13" t="n">
-        <v>617.5806291564181</v>
+        <v>626.9414267287411</v>
       </c>
       <c r="O13" t="n">
-        <v>24.85116957320959</v>
+        <v>25.03879842821419</v>
       </c>
       <c r="P13" t="n">
-        <v>273.6242661800442</v>
+        <v>273.9686161904134</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -29058,28 +29058,28 @@
         <v>0.0698</v>
       </c>
       <c r="I14" t="n">
-        <v>4.29201571707195</v>
+        <v>4.253458652235326</v>
       </c>
       <c r="J14" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K14" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6193337303695787</v>
+        <v>0.6115759730976685</v>
       </c>
       <c r="M14" t="n">
-        <v>19.55972330702782</v>
+        <v>19.6959658239012</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9751893743038</v>
+        <v>626.0336683264907</v>
       </c>
       <c r="O14" t="n">
-        <v>24.79869329973464</v>
+        <v>25.02066482582928</v>
       </c>
       <c r="P14" t="n">
-        <v>276.8365516667159</v>
+        <v>277.2422629390178</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -29136,28 +29136,28 @@
         <v>0.0877</v>
       </c>
       <c r="I15" t="n">
-        <v>3.216366412783319</v>
+        <v>3.182113764727579</v>
       </c>
       <c r="J15" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K15" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5354825890062128</v>
+        <v>0.5264522901426882</v>
       </c>
       <c r="M15" t="n">
-        <v>17.92270288877377</v>
+        <v>18.0395852239384</v>
       </c>
       <c r="N15" t="n">
-        <v>505.5761086162874</v>
+        <v>514.7518595160833</v>
       </c>
       <c r="O15" t="n">
-        <v>22.48501964900826</v>
+        <v>22.68814358902207</v>
       </c>
       <c r="P15" t="n">
-        <v>298.890595594173</v>
+        <v>299.2390032919766</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -29214,28 +29214,28 @@
         <v>0.0936</v>
       </c>
       <c r="I16" t="n">
-        <v>2.923523513559093</v>
+        <v>2.886112517691778</v>
       </c>
       <c r="J16" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K16" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4502116896066912</v>
+        <v>0.4400897954704009</v>
       </c>
       <c r="M16" t="n">
-        <v>18.72908517979259</v>
+        <v>18.86681094135758</v>
       </c>
       <c r="N16" t="n">
-        <v>582.929205734458</v>
+        <v>593.7586109501694</v>
       </c>
       <c r="O16" t="n">
-        <v>24.14392689134181</v>
+        <v>24.36716255435108</v>
       </c>
       <c r="P16" t="n">
-        <v>293.9302337095745</v>
+        <v>294.3124552270003</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -29292,28 +29292,28 @@
         <v>0.076</v>
       </c>
       <c r="I17" t="n">
-        <v>2.785164676343465</v>
+        <v>2.744468667507707</v>
       </c>
       <c r="J17" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K17" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4140104072013174</v>
+        <v>0.4027222383910481</v>
       </c>
       <c r="M17" t="n">
-        <v>19.28776887421553</v>
+        <v>19.46147809239494</v>
       </c>
       <c r="N17" t="n">
-        <v>618.3258634313673</v>
+        <v>631.1784184133704</v>
       </c>
       <c r="O17" t="n">
-        <v>24.86615900036367</v>
+        <v>25.12326448559921</v>
       </c>
       <c r="P17" t="n">
-        <v>287.9378236259652</v>
+        <v>288.3493517314552</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -29370,28 +29370,28 @@
         <v>0.0891</v>
       </c>
       <c r="I18" t="n">
-        <v>2.291681306279583</v>
+        <v>2.256022234326621</v>
       </c>
       <c r="J18" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K18" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3620619695715647</v>
+        <v>0.3511196562793466</v>
       </c>
       <c r="M18" t="n">
-        <v>17.25621305193252</v>
+        <v>17.38651349402743</v>
       </c>
       <c r="N18" t="n">
-        <v>513.9524567769508</v>
+        <v>524.0274422543797</v>
       </c>
       <c r="O18" t="n">
-        <v>22.67051955242647</v>
+        <v>22.8916456868959</v>
       </c>
       <c r="P18" t="n">
-        <v>298.2897276155651</v>
+        <v>298.6567690566325</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">

--- a/data/nzd0526/nzd0526.xlsx
+++ b/data/nzd0526/nzd0526.xlsx
@@ -28113,13 +28113,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0379</v>
+        <v>0.0556</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0684</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
         <v>4.57596421126519</v>
@@ -28191,10 +28191,10 @@
         <v>0.06252278717706637</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0643</v>
+        <v>0.0806</v>
       </c>
       <c r="H3" t="n">
         <v>0.2</v>
@@ -28269,13 +28269,13 @@
         <v>0.1250455743560122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0506</v>
+        <v>0.0755</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1315</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>4.42676875404779</v>
@@ -28347,10 +28347,10 @@
         <v>0.1875683615354399</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0594</v>
+        <v>0.0901</v>
       </c>
       <c r="H5" t="n">
         <v>0.2</v>
@@ -28425,10 +28425,10 @@
         <v>0.2500911487127472</v>
       </c>
       <c r="F6" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.1199</v>
       </c>
       <c r="H6" t="n">
         <v>0.2</v>
@@ -28503,10 +28503,10 @@
         <v>0.3126139358921748</v>
       </c>
       <c r="F7" t="n">
-        <v>0.155</v>
+        <v>0.19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0925</v>
       </c>
       <c r="H7" t="n">
         <v>0.2</v>
@@ -28581,10 +28581,10 @@
         <v>0.3751002326638262</v>
       </c>
       <c r="F8" t="n">
-        <v>0.135</v>
+        <v>0.15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.0829</v>
       </c>
       <c r="H8" t="n">
         <v>0.2</v>
@@ -28659,10 +28659,10 @@
         <v>0.4376230198416597</v>
       </c>
       <c r="F9" t="n">
-        <v>0.135</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0677</v>
+        <v>0.0992</v>
       </c>
       <c r="H9" t="n">
         <v>0.2</v>
@@ -28737,10 +28737,10 @@
         <v>0.5001458070194932</v>
       </c>
       <c r="F10" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0648</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0.2</v>
@@ -28815,13 +28815,13 @@
         <v>0.5626685941973266</v>
       </c>
       <c r="F11" t="n">
-        <v>0.075</v>
+        <v>0.15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0504</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1429</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>4.249930169774539</v>
@@ -28893,10 +28893,10 @@
         <v>0.6251584028425025</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09</v>
+        <v>0.165</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0554</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0.2</v>
@@ -28971,13 +28971,13 @@
         <v>0.687681190020107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08</v>
+        <v>0.115</v>
       </c>
       <c r="G13" t="n">
-        <v>0.053</v>
+        <v>0.0731</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1541</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
         <v>4.207043827724026</v>
@@ -29049,13 +29049,13 @@
         <v>0.7502039771974689</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.105</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0412</v>
+        <v>0.0679</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0698</v>
+        <v>0.2</v>
       </c>
       <c r="I14" t="n">
         <v>4.253458652235326</v>
@@ -29127,13 +29127,13 @@
         <v>0.8124317427659202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0442</v>
+        <v>0.081</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0877</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
         <v>3.182099870786419</v>
@@ -29205,13 +29205,13 @@
         <v>0.8749545299459359</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0547</v>
+        <v>0.0779</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0936</v>
+        <v>0.2</v>
       </c>
       <c r="I16" t="n">
         <v>2.886098508421219</v>
@@ -29283,13 +29283,13 @@
         <v>0.9374773171256</v>
       </c>
       <c r="F17" t="n">
-        <v>0.055</v>
+        <v>0.11</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0447</v>
+        <v>0.0757</v>
       </c>
       <c r="H17" t="n">
-        <v>0.076</v>
+        <v>0.1976</v>
       </c>
       <c r="I17" t="n">
         <v>2.744454482419392</v>
@@ -29361,13 +29361,13 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0477</v>
+        <v>0.1001</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0891</v>
+        <v>0.2</v>
       </c>
       <c r="I18" t="n">
         <v>2.256008780110284</v>
